--- a/www/terminologies/CodeSystem-TRE-R244-CategorieOrganisation.xlsx
+++ b/www/terminologies/CodeSystem-TRE-R244-CategorieOrganisation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="595">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250328120000</t>
+    <t>20250425120000</t>
   </si>
   <si>
     <t>Name</t>
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-28T12:00:00+01:00</t>
+    <t>2025-04-25T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,6 +73,12 @@
     <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris</t>
   </si>
   <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -928,7 +934,7 @@
     <t>124</t>
   </si>
   <si>
-    <t>Unité de soins intensifs (USI) de spécialité</t>
+    <t>Unité de soins intensifs (USI) de spécialité (hors USIC, USINV, USIH)</t>
   </si>
   <si>
     <t>125</t>
@@ -1715,6 +1721,84 @@
   </si>
   <si>
     <t>Unité de surveillance continue</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>Communauté Professionnelle Territoriale de Santé (CPTS)</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>Etablissement d'accueil temporaire pour adultes handicapés</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>Unité pour Personnes Handicapées Vieillissantes (UPHV)</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>Hébergement Temporaire d'urgence en Sortie d'Hospitalisation</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>Point d'information local dédié aux personnes âgées</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>Relayage au domicile</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>Accueil familial pour personne âgée</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>Unité de soins intensifs spécialisés cardiologie (USIC)</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>Unité de soins intensifs spécialisés neurologie vasculaire (USINV)</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>Unité de soins intensifs spécialisés hématologie (USIH)</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>Equipe mobile d'algologie</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>Equipe mobile de gériatrie (EMG)</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>Equipe mobile d'endocrinologie, diabétologie, métabolisme et nutrition</t>
   </si>
 </sst>
 </file>
@@ -1848,7 +1932,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1948,65 +2032,73 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>14</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s" s="2">
         <v>29</v>
       </c>
+      <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" t="s" s="2">
+        <v>31</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B22" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2023,94 +2115,94 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s" s="2">
         <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2120,7 +2212,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D255"/>
+  <dimension ref="A1:D268"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2128,3073 +2220,3229 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D70" s="2"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D74" s="2"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D75" s="2"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D76" s="2"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D77" s="2"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D78" s="2"/>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D79" s="2"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D80" s="2"/>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D81" s="2"/>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D82" s="2"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D83" s="2"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D84" s="2"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D85" s="2"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D86" s="2"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D87" s="2"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D88" s="2"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D89" s="2"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D90" s="2"/>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D91" s="2"/>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D92" s="2"/>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D93" s="2"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D94" s="2"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D95" s="2"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D96" s="2"/>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D97" s="2"/>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D98" s="2"/>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D99" s="2"/>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D100" s="2"/>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D101" s="2"/>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D102" s="2"/>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D103" s="2"/>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D104" s="2"/>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D105" s="2"/>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D106" s="2"/>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D107" s="2"/>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D108" s="2"/>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D109" s="2"/>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D110" s="2"/>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D111" s="2"/>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D112" s="2"/>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D113" s="2"/>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D114" s="2"/>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D115" s="2"/>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D116" s="2"/>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D117" s="2"/>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D118" s="2"/>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D119" s="2"/>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D120" s="2"/>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D121" s="2"/>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D122" s="2"/>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D123" s="2"/>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D124" s="2"/>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D125" s="2"/>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D126" s="2"/>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D127" s="2"/>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D128" s="2"/>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D129" s="2"/>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D130" s="2"/>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D131" s="2"/>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D132" s="2"/>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D133" s="2"/>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D134" s="2"/>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D135" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D136" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D137" s="2"/>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D138" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D139" s="2"/>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D140" s="2"/>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D141" s="2"/>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D142" s="2"/>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D143" s="2"/>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D144" s="2"/>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D145" s="2"/>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D146" s="2"/>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D147" s="2"/>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D148" s="2"/>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D149" s="2"/>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D150" s="2"/>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D151" s="2"/>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D152" s="2"/>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D153" s="2"/>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D154" s="2"/>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D155" s="2"/>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D156" s="2"/>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D157" s="2"/>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D158" s="2"/>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D159" s="2"/>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D160" s="2"/>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D161" s="2"/>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D162" s="2"/>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D163" s="2"/>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D164" s="2"/>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D165" s="2"/>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D166" s="2"/>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D167" s="2"/>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D168" s="2"/>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D169" s="2"/>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D170" s="2"/>
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D171" s="2"/>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D172" s="2"/>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D173" s="2"/>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D174" s="2"/>
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D175" s="2"/>
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D176" s="2"/>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D177" s="2"/>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D178" s="2"/>
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D179" s="2"/>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D180" s="2"/>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D181" s="2"/>
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D182" s="2"/>
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D183" s="2"/>
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D184" s="2"/>
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D185" s="2"/>
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D186" s="2"/>
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D187" s="2"/>
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D188" s="2"/>
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D189" s="2"/>
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D190" s="2"/>
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D191" s="2"/>
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D192" s="2"/>
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D193" s="2"/>
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D194" s="2"/>
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D195" s="2"/>
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D196" s="2"/>
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D197" s="2"/>
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D198" s="2"/>
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D199" s="2"/>
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D200" s="2"/>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D201" s="2"/>
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D202" s="2"/>
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D203" s="2"/>
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D204" s="2"/>
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D205" s="2"/>
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D206" s="2"/>
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D207" s="2"/>
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D208" s="2"/>
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D209" s="2"/>
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D210" s="2"/>
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D211" s="2"/>
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D212" s="2"/>
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D213" s="2"/>
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D214" s="2"/>
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D215" s="2"/>
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D216" s="2"/>
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D217" s="2"/>
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D218" s="2"/>
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D219" s="2"/>
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D220" s="2"/>
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D221" s="2"/>
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D222" s="2"/>
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D223" s="2"/>
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D224" s="2"/>
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D225" s="2"/>
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D226" s="2"/>
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D227" s="2"/>
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D228" s="2"/>
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D229" s="2"/>
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D230" s="2"/>
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D231" s="2"/>
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D232" s="2"/>
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D233" s="2"/>
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D234" s="2"/>
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D235" s="2"/>
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D236" s="2"/>
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D237" s="2"/>
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D238" s="2"/>
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D239" s="2"/>
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D240" s="2"/>
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D241" s="2"/>
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C242" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D242" s="2"/>
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D243" s="2"/>
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C244" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D244" s="2"/>
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C245" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D245" s="2"/>
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D246" s="2"/>
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C247" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D247" s="2"/>
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D248" s="2"/>
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D249" s="2"/>
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C250" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D250" s="2"/>
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D251" s="2"/>
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D252" s="2"/>
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D253" s="2"/>
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C254" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D254" s="2"/>
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C255" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D255" s="2"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B256" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="C256" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="D256" s="2"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B257" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="C257" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="D257" s="2"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B258" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="C258" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="D258" s="2"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B259" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="C259" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="D259" s="2"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B260" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="C260" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="D260" s="2"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B261" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="C261" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="D261" s="2"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B262" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="C262" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="D262" s="2"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B263" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="C263" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="D263" s="2"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B264" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="C264" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="D264" s="2"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B265" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="C265" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="D265" s="2"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B266" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="C266" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="D266" s="2"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B267" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="C267" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="D267" s="2"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B268" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="C268" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="D268" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/www/terminologies/CodeSystem-TRE-R244-CategorieOrganisation.xlsx
+++ b/www/terminologies/CodeSystem-TRE-R244-CategorieOrganisation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="611">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250425120000</t>
+    <t>20250625120000</t>
   </si>
   <si>
     <t>Name</t>
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-25T12:00:00+01:00</t>
+    <t>2025-06-25T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -118,6 +118,9 @@
     <t>Count</t>
   </si>
   <si>
+    <t>275</t>
+  </si>
+  <si>
     <t>Code</t>
   </si>
   <si>
@@ -1138,7 +1141,7 @@
     <t>157</t>
   </si>
   <si>
-    <t>Unité hospitalière de gynécologie</t>
+    <t>Unité hospitalière de gynécologie et/ou obstétrique</t>
   </si>
   <si>
     <t>158</t>
@@ -1360,7 +1363,7 @@
     <t>194</t>
   </si>
   <si>
-    <t>Cabinet de ville de gynécologie</t>
+    <t>Cabinet de ville de gynécologie et/ou obstétrique</t>
   </si>
   <si>
     <t>195</t>
@@ -1612,7 +1615,7 @@
     <t>236</t>
   </si>
   <si>
-    <t>Unité hospitalière d'orthopédie dento-faciale (odontologie)</t>
+    <t>Unité hospitalière d'odontologie</t>
   </si>
   <si>
     <t>237</t>
@@ -1799,6 +1802,51 @@
   </si>
   <si>
     <t>Equipe mobile d'endocrinologie, diabétologie, métabolisme et nutrition</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>Centre de lutte antituberculeuse (CLAT)</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>Centre de vaccination</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>Centre de vaccination internationale</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>Dialyse à Domicile</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>Equipe de Liaison et de Soins en Addictologie (ELSA)</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>Unité d’auto-dialyse assistée (UAD)</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>Unité de dialyse en centre lourd</t>
+  </si>
+  <si>
+    <t>Unité de dialyse Médicalisée (UDM)</t>
   </si>
 </sst>
 </file>
@@ -2098,7 +2146,9 @@
       <c r="A22" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" t="s" s="2">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2115,94 +2165,94 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>21</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2212,7 +2262,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D268"/>
+  <dimension ref="A1:D276"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2220,3229 +2270,3325 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D70" s="2"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D74" s="2"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D75" s="2"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D76" s="2"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D77" s="2"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D78" s="2"/>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D79" s="2"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D80" s="2"/>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D81" s="2"/>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D82" s="2"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D83" s="2"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D84" s="2"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D85" s="2"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D86" s="2"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D87" s="2"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D88" s="2"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D89" s="2"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D90" s="2"/>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D91" s="2"/>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D92" s="2"/>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D93" s="2"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D94" s="2"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D95" s="2"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D96" s="2"/>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D97" s="2"/>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D98" s="2"/>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D99" s="2"/>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D100" s="2"/>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D101" s="2"/>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D102" s="2"/>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D103" s="2"/>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D104" s="2"/>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D105" s="2"/>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D106" s="2"/>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D107" s="2"/>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D108" s="2"/>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D109" s="2"/>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D110" s="2"/>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D111" s="2"/>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D112" s="2"/>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D113" s="2"/>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D114" s="2"/>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D115" s="2"/>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D116" s="2"/>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D117" s="2"/>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D118" s="2"/>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D119" s="2"/>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D120" s="2"/>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D121" s="2"/>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D122" s="2"/>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D123" s="2"/>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D124" s="2"/>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D125" s="2"/>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D126" s="2"/>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D127" s="2"/>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D128" s="2"/>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D129" s="2"/>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D130" s="2"/>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D131" s="2"/>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D132" s="2"/>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D133" s="2"/>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D134" s="2"/>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D135" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D136" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D137" s="2"/>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D138" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D139" s="2"/>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D140" s="2"/>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D141" s="2"/>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D142" s="2"/>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D143" s="2"/>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D144" s="2"/>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D145" s="2"/>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D146" s="2"/>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D147" s="2"/>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D148" s="2"/>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D149" s="2"/>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D150" s="2"/>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D151" s="2"/>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D152" s="2"/>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D153" s="2"/>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D154" s="2"/>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D155" s="2"/>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D156" s="2"/>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D157" s="2"/>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D158" s="2"/>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D159" s="2"/>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D160" s="2"/>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D161" s="2"/>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D162" s="2"/>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D163" s="2"/>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D164" s="2"/>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D165" s="2"/>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D166" s="2"/>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D167" s="2"/>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D168" s="2"/>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D169" s="2"/>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D170" s="2"/>
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D171" s="2"/>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D172" s="2"/>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D173" s="2"/>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D174" s="2"/>
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D175" s="2"/>
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D176" s="2"/>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D177" s="2"/>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D178" s="2"/>
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D179" s="2"/>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D180" s="2"/>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D181" s="2"/>
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D182" s="2"/>
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D183" s="2"/>
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D184" s="2"/>
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D185" s="2"/>
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D186" s="2"/>
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D187" s="2"/>
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D188" s="2"/>
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D189" s="2"/>
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D190" s="2"/>
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D191" s="2"/>
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D192" s="2"/>
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D193" s="2"/>
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D194" s="2"/>
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D195" s="2"/>
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D196" s="2"/>
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D197" s="2"/>
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D198" s="2"/>
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D199" s="2"/>
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D200" s="2"/>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D201" s="2"/>
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D202" s="2"/>
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D203" s="2"/>
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D204" s="2"/>
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D205" s="2"/>
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D206" s="2"/>
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D207" s="2"/>
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D208" s="2"/>
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D209" s="2"/>
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D210" s="2"/>
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D211" s="2"/>
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D212" s="2"/>
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D213" s="2"/>
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D214" s="2"/>
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D215" s="2"/>
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D216" s="2"/>
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D217" s="2"/>
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D218" s="2"/>
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D219" s="2"/>
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D220" s="2"/>
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D221" s="2"/>
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D222" s="2"/>
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D223" s="2"/>
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D224" s="2"/>
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D225" s="2"/>
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D226" s="2"/>
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D227" s="2"/>
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D228" s="2"/>
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D229" s="2"/>
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D230" s="2"/>
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D231" s="2"/>
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D232" s="2"/>
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D233" s="2"/>
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D234" s="2"/>
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D235" s="2"/>
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D236" s="2"/>
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D237" s="2"/>
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D238" s="2"/>
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D239" s="2"/>
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D240" s="2"/>
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D241" s="2"/>
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C242" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D242" s="2"/>
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D243" s="2"/>
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C244" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D244" s="2"/>
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C245" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D245" s="2"/>
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D246" s="2"/>
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C247" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D247" s="2"/>
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D248" s="2"/>
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D249" s="2"/>
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C250" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D250" s="2"/>
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D251" s="2"/>
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D252" s="2"/>
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D253" s="2"/>
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C254" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D254" s="2"/>
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C255" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D255" s="2"/>
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D256" s="2"/>
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D257" s="2"/>
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C258" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D258" s="2"/>
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C259" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D259" s="2"/>
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D260" s="2"/>
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C261" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D261" s="2"/>
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C262" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D262" s="2"/>
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C263" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D263" s="2"/>
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C264" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D264" s="2"/>
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C265" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D265" s="2"/>
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D266" s="2"/>
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C267" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D267" s="2"/>
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D268" s="2"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B269" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="C269" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="D269" s="2"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B270" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="C270" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="D270" s="2"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B271" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="C271" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="D271" s="2"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B272" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="C272" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="D272" s="2"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B273" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="C273" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="D273" s="2"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B274" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="C274" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="D274" s="2"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B275" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="C275" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="D275" s="2"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B276" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="C276" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="D276" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/www/terminologies/CodeSystem-TRE-R244-CategorieOrganisation.xlsx
+++ b/www/terminologies/CodeSystem-TRE-R244-CategorieOrganisation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="617">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250625120000</t>
+    <t>20250710120000</t>
   </si>
   <si>
     <t>Name</t>
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T12:00:00+01:00</t>
+    <t>2025-07-10T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -118,1735 +118,1753 @@
     <t>Count</t>
   </si>
   <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Uri</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>dateValid</t>
+  </si>
+  <si>
+    <t>date de validité d'un code concept</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>dateMaj</t>
+  </si>
+  <si>
+    <t>Date de mise à jour d'un code concept</t>
+  </si>
+  <si>
+    <t>dateFin</t>
+  </si>
+  <si>
+    <t>Date de fin d'exploitation d'un code concept</t>
+  </si>
+  <si>
+    <t>deprecationDate</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/concept-properties#deprecationDate</t>
+  </si>
+  <si>
+    <t>Date Concept was deprecated</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/concept-properties#status</t>
+  </si>
+  <si>
+    <t>A property that indicates the status of the concept.</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>retirementDate</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/concept-properties#retirementDate</t>
+  </si>
+  <si>
+    <t>Date Concept was retired</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Appartement thérapeutique</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Atelier thérapeutique</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Cellule d'Urgences Médico-Psychologique (CUMP)</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Centre d'Accueil Permanent (CAP)</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Centre d'Accueil Thérapeutique à Temps Partiel (CATTP)</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Centre de crise</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>Centre de post-cure</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>Centre de Ressources Autisme (CRA)</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>Centre Expert</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Centre Médico-Psychologique (CMP)</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Hôpital De Jour (HDJ)</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Hôpital De Nuit (HDN)</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Service d'Accueil Familial Thérapeutique</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Service Médico-Psychologique Régional (SMPR)</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Unité de Soins Intensifs Psychiatriques (USIP)</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Unité d'hospitalisation (hors HDJ)</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Unité Hospitalière Spécialement Aménagé (UHSA)</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Unité Malade Difficile (UMD)</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Unités Soins Etudes</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Unité d'urgences</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Accueil ou hébergement pour personnes âgées dépendantes, sans spécificité</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Accueil ou hébergement pour personnes âgées autonomes, sans spécificité</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Accueil pour personnes âgées dépendantes, avec spécificité UHR</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Accueil pour personnes âgées dépendantes, avec spécificité Unité de vie protégée</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Pôle d'activité de Soins Adaptés (PASA)</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Accueil ou hébergement personnes âgées dépendantes, avec spécificité PUV</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Accueil pour personnes âgées autonomes, avec spécificité MARPA</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Services Soins infirmiers à domicile (SSIAD)</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Equipe spécialisée Alzheimer (ESA)</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Service autonomie à domicile (SAD) aide</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Service d'Accompagnement à la Vie Sociale (SAVS)</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Service d'accompagnement médico-social adultes handicapés (SAMSAH)</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Service de portage de repas à domicile</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Service de Téléassistance</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Foyer restaurant</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Dispositif d'accueil familial</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Centre d'accueil familial spécialisé (CAFS)</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Plateforme d'accompagnement et de répit</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Foyer ou établissement d'accueil médicalisé (FAM ou EAM)</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Maison d'accueil spécialisée (MAS)</t>
+  </si>
+  <si>
+    <t>Structure d'hébergement permanent et de soins pour adulte handicapé dépendant qui n'arrive pas à réaliser seul les actes de la vie courante (se nourrir, s'habiller...), elles proposent des activités quotidiennes d'éveil ou occupationnelles (musique, relaxation, activités manuelles…) et sont structurées autour d'unités de vie comprenant 8 à 10 chambres individuelles. Elles accueillent des personnes un peu plus dépendantes que la population hébergée en foyer d'accueil médicalisé (Fam)</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>EANM dont foyer de vie et foyer d'hébergement</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Foyer d'hébergement (Etablissement d'accueil non médicalisé)</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Unité d'aide par le travail (ESAT)</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Etablissements et Service de Réadaptation Professionnelle (ESRP)</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Unités évaluation réentraînement et orientation sociale et professionnel (UEROS)</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Établissements et Services de Pré-Orientation (ESPO)</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Plateforme Emploi Accompagné (PEA)</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Institut médico-éducatif (IME)</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Institut d'éducation motrice (IEM)</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Institut thérapeutique éducatif et pédagogique (ITEP)</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Etablissement pour enfant ou ado polyhandicapé (EEAP)</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Institut déficient visuel</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Institut déficient auditif</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Institut déficient Visuel et Auditif</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Unité d'enseignement interne</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>Unité d'enseignement externalisée</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>Service d'Education Spécialisée de Soins à Domicile (SESSAD)</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>Service d'Accompagnement Familial et d'Education Précoce (SAFEP)</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>Services de Soutien à l'Education Familiale et à la Scolarisation (SSEFIS)</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Serv Aide à l'Acquisition de l'Autono et à l'Intégration Sco (S3AIS)</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>Centre d'action médico-sociale précoce (CAMSP)</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>Centre médico-psycho-pédagogique (CMPP)</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>Jardin d'enfants spécialisé</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>Bureau d'Aide Psychologique Universitaire (B.A.P.U.)</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>Pôle de compétences et de prestations externalisées (PCPE)</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>Equipe Relai Handicap rare</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>Lieu de vie et d'accueil (hors ESMS)</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>Unité d'hospitalisation fermée</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Consultation externe en établissement de santé</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>Unité d'intervention extra-hospitalière</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Equipe de liaison et de soins (intra-hospitalière)</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>Guichet d'accueil, écoute, conseil, orientation</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>Gestion de cas MAIA</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>Logement inclusif</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Services Soins infirmiers à domicile renforcé (SSIAD renforcé)</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Unité d'évaluation et de régulation des admissions en psychiatrie</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>Equipe Mobile Psychiatrie et Précarité (EMPP)</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>Equipe Mobile Géronto-Psychiatrie (EMGP)</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>Equipe Mobile Ambulatoire de Réadaptation Spécialisé (EARS)</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Centre de Soins, d'Accompagnement et de Prévention en Addictologie (CSAPA)</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>CAARUD</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>Pharmacie à Usage Intérieur (PUI)</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>Chambre mortuaire</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Plateforme de Coordination et d'Orientation (PCO)</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>Equipe Mobile Autisme</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>Consultation Jeune Consommateur (CJC)</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>Dispositif VigilanS</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>Dispositif expérimental</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>Centre de santé sexuelle</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>Equipe mobile de prévention du risque infectieux</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Equipe opérationnelle d'hygiène (EOH)</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>Soins non programmés de ville</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Lits halte soins santé (LHSS)</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Appartement de coordination thérapeutique (ACT)</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>Lits d'accueil médicalisés (L.A.M.)</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>Etablissement d'accueil non médicalisé (EANM) - foyer d'hébergement</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>Etablissement d'accueil non médicalisé (EANM) - foyer de vie</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>Espaces de vie affective, relationnelle et sexuelle (EVARS)</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>Maison de santé pluriprofessionnelle (MSP)</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) polyvalent</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) gériatrie</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) locomoteur</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) système nerveux</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) cardio-vasculaire</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) pneumologie</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) sys dig, endocrino, diabéto, nutrition</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) brûlés</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) conduites addictives</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) pédiatriques (enfants et adolescents)</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) pédiatriques (jeunes enfants, enf, ado)</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) oncologie</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) oncologie et hématologie</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>Centre de Réhabilitation Psychosociale</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>Centre Ressource pour les Interv. auprès des Aut. de Violences Sex. (CRIAVS)</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>Equipe Spécialisée de Soins Infirmiers Précarité (ESSIP)</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>Unité de chirurgie oncologique</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>Unité de radiothérapie</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>Unité de traitements médicamenteux systémiques du cancer</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>Unité mère-enfant</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>Centre de recours Troubles du Comportement Alimentaire (TCA)</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>Unité de réanimation</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>Unité de soins intensifs polyvalents (USIP) contiguë</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Unité de soins intensifs polyvalents (USIP) dérogatoire</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>Unité de soins intensifs (USI) de spécialité (hors USIC, USINV, USIH)</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>Centre de protection maternelle et infantile (PMI)</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>Structure Douleur Chronique (SDC)</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>Centre régional du psychotraumatisme (CRP)</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>Unité d'hospitalisation à domicile socle</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>Unité d'hospitalisation à domicile ante et post-partum</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>Unité d'hospitalisation à domicile réadaptation</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>Unité d'hospitalisation à domicile enfants de moins de trois ans</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>Service autonomie à domicile (SAD) aide et soins</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>Maison des adolescents (MDA)</t>
+  </si>
+  <si>
+    <t>Structures ayant pour missions : l'accueil, l'information, la prévention et la promotion de la santé, l'accompagnement et la prise en charge multidisciplinaire (médecin, psychologue, juriste, infirmière ou infirmier, éducateur ou éducatrice, etc.) des adolescents et jeunes adultes, de leurs familles et des professionnels qui les entourent, pour répondre aux questions relatives à l'adolescence (sexualité, puberté, consommation de toxiques, santé mentale, etc.)</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>Points Accueil Ecoute Jeunes (PAEJ)</t>
+  </si>
+  <si>
+    <t>Petites structures  complémentaires des maisons des adolescents (MDA), qui  offrent une écoute, un accueil et une orientation aux jeunes âgés de 12 à 25 ans, ainsi qu'aux parents,  de façon inconditionnelle, gratuite et confidentielle, sans rendez-vous,  souhaitant recevoir un appui, un conseil, une orientation, des lors qu'ils rencontrent une difficulté concernant la santé de façon la plus large : mal être, souffrance, dévalorisation, échec, attitude conflictuelle, difficultés scolaires ou relationnelles, conduites de rupture, violentes ou dépendantes, décrochage social, scolaire.</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>Centre de ressources territorial (CRT)</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>Maison sport-santé</t>
+  </si>
+  <si>
+    <t>Lieu d'accompagnement et d'orientation  pour permettre à toute personne de pratiquer, développer ou reprendre  une activité physique ou sportive bénéfique pour sa santé</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>Unité de soins non programmés en établissement de santé</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>Unité de soins intensifs polyvalents (USIP) non contiguë</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>Equipe Mobile d'Appui à la Scolarisation (EMAS)</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>Espace Santé Jeune (ESJ)</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>Equipes Mobiles Santé Précarité (EMSP)</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>Communauté 360</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>Equipe Mobile de Psychiatrie de la Personne Âgée</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>Unité d'addictologie</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>Unité de prise en charge des brûlés</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Unité de sevrage complexe</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>Unité hospitalière d'allergologie</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de cardiologie</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de chirurgie orthopédique et traumatologique</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de chirurgie thoracique et cardiovasculaire</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de chirurgie vasculaire</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de chirurgie viscérale et digestive</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de dermatologie</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de génétique médicale</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de gériatrie</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de gynécologie et/ou obstétrique</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de médecine vasculaire</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de néphrologie</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de neurochirurgie</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de neurologie</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de pédiatrie</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de pneumologie</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de radiologie</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de rhumatologie</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de stomatologie, chirurgie orale et maxillo faciale</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>Unité hospitalière d'endocrinologie, diabétologie et nutrition</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>Unité hospitalière des maladies infectieuses et tropicales</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>Unité hospitalière d'hématologie</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>Unité hospitalière d'hépato-gastro-entérologie (HGE)</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>Unité hospitalière d'oncologie</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>Unité hospitalière d'ophtalmologie</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>Unité hospitalière oto-rhino-laryngologie (ORL)</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>Unité psychiatrique</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>Unités de soins palliatifs</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de médecine interne</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>Dispositif de consultation dédié pour les personnes en situation de handicap</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>Dispositif d'Appui à la Coordination (DAC)</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'oto-rhino-laryngologie (ORL)</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'allergologie</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'anatomo-cytopathologie</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'anesthésie-réanimation</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de cardiologie</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de chirurgie orthopédique et traumatologique</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de chirurgie pédiatrique</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de chirurgie plastique</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de chirurgie thoracique et cardiovasculaire</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de chirurgie vasculaire</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de chirurgie viscérale et digestive</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de dermatologie</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de diététique</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de génétique médicale</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de gériatrie</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de gynécologie et/ou obstétrique</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de kinésithérapie</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de médecine générale</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de médecine interne</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de médecine légale et expertise médicale</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de médecine nucléaire</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de médecine physique et réadaptation (MPR)</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de médecine vasculaire</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de néphrologie</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de neurochirurgie</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de neurologie</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de pédiatrie</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de pédicure-podologie</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de pneumologie</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de psychiatrie</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de psychologie</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de psychomotricité</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de radiologie</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de rhumatologie</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de sages-femmes</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de stomatologie, chirurgie orale et maxillo faciale</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'endocrinologie, diabétologie et nutrition</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'ergothérapie</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>Cabinet de ville des maladies infectieuses et tropicales (MIT)</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'hématologie</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'hépato-gastro-entérologie</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'oncologie</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'ophtalmologie</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'orthophonie</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'orthoptie</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'urologie</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>Cabinet de ville infirmier</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>Cabinet dentaire de chirurgie dentaire</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>Cabinet dentaire de chirurgie orale</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>Cabinet dentaire de médecine bucco-dentaire</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>Cabinet dentaire d'orthopédie dento-faciale</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>Unité hospitalière d'anatomo-cytopathologie</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de médecine du sport</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de médecine légale et expertise médicale</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de médecine physique et réadaptation (MPR)</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>Unité hospitalière d'urologie</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de médecine générale</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>Unité hospitalière d'odontologie</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>Unité hospitalière d'anesthésie</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de médecine polyvalente</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de médecine nucléaire</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de médecine du travail</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de chirurgie pédiatrique</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de chirurgie plastique, reconstructrice et esthétique</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de médecine intensive et réanimation (MIR)</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>Equipe Mobile d'Expertise en Réadaptation (EMER) neuro-locomoteur</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>Centre expert en maladies rares</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>Service d'Aide Médicale Urgente (SAMU)</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>Structure Mobile d'Urgence et de Réanimation (SMUR)</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>Unité de biologie</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>Unité de Soins de Longue Durée (USLD)</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>Centres Gratuits d'Information, de Dépistage et de Diagnostic (CeGIDD)</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>Centre Périnatal de Proximité (CPP)</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>Equipes Mobiles de Soins Palliatifs (EMSP)</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>Equipe Ressource Régionale de Soins Palliatifs Pédiatriques (ERRSPP)</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>Unité de surveillance continue</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>Communauté Professionnelle Territoriale de Santé (CPTS)</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>Etablissement d'accueil temporaire pour adultes handicapés</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>Unité pour Personnes Handicapées Vieillissantes (UPHV)</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>Hébergement Temporaire d'urgence en Sortie d'Hospitalisation</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>Point d'information local dédié aux personnes âgées</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>Relayage au domicile</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>Accueil familial pour personne âgée</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>Unité de soins intensifs spécialisés cardiologie (USIC)</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>Unité de soins intensifs spécialisés neurologie vasculaire (USINV)</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>Unité de soins intensifs spécialisés hématologie (USIH)</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>Equipe mobile d'algologie</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>Equipe mobile de gériatrie (EMG)</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>Equipe mobile d'endocrinologie, diabétologie, métabolisme et nutrition</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>Centre de lutte antituberculeuse (CLAT)</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>Centre de vaccination</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>Centre de vaccination internationale</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>Dialyse à Domicile</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>Equipe de Liaison et de Soins en Addictologie (ELSA)</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>Unité d’auto-dialyse assistée (UAD)</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>Unité de dialyse en centre lourd</t>
+  </si>
+  <si>
     <t>275</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Uri</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>dateValid</t>
-  </si>
-  <si>
-    <t>date de validité d'un code concept</t>
-  </si>
-  <si>
-    <t>dateTime</t>
-  </si>
-  <si>
-    <t>dateMaj</t>
-  </si>
-  <si>
-    <t>Date de mise à jour d'un code concept</t>
-  </si>
-  <si>
-    <t>dateFin</t>
-  </si>
-  <si>
-    <t>Date de fin d'exploitation d'un code concept</t>
-  </si>
-  <si>
-    <t>deprecationDate</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/concept-properties#deprecationDate</t>
-  </si>
-  <si>
-    <t>Date Concept was deprecated</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/concept-properties#status</t>
-  </si>
-  <si>
-    <t>A property that indicates the status of the concept.</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>retirementDate</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/concept-properties#retirementDate</t>
-  </si>
-  <si>
-    <t>Date Concept was retired</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>Appartement thérapeutique</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Atelier thérapeutique</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Cellule d'Urgences Médico-Psychologique (CUMP)</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>Centre d'Accueil Permanent (CAP)</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>Centre d'Accueil Thérapeutique à Temps Partiel (CATTP)</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Centre de crise</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>Centre de post-cure</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>Centre de Ressources Autisme (CRA)</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>Centre Expert</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Centre Médico-Psychologique (CMP)</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Hôpital De Jour (HDJ)</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Hôpital De Nuit (HDN)</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Service d'Accueil Familial Thérapeutique</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Service Médico-Psychologique Régional (SMPR)</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Unité de Soins Intensifs Psychiatriques (USIP)</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Unité d'hospitalisation (hors HDJ)</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Unité Hospitalière Spécialement Aménagé (UHSA)</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Unité Malade Difficile (UMD)</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Unités Soins Etudes</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Unité d'urgences</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Accueil ou hébergement pour personnes âgées dépendantes, sans spécificité</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Accueil ou hébergement pour personnes âgées autonomes, sans spécificité</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Accueil pour personnes âgées dépendantes, avec spécificité UHR</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Accueil pour personnes âgées dépendantes, avec spécificité Unité de vie protégée</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Pôle d'activité de Soins Adaptés (PASA)</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Accueil ou hébergement personnes âgées dépendantes, avec spécificité PUV</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Accueil pour personnes âgées autonomes, avec spécificité MARPA</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Services Soins infirmiers à domicile (SSIAD)</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Equipe spécialisée Alzheimer (ESA)</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>Service autonomie à domicile (SAD) aide</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>Service d'Accompagnement à la Vie Sociale (SAVS)</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Service d'accompagnement médico-social adultes handicapés (SAMSAH)</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>Service de portage de repas à domicile</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>Service de Téléassistance</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>Foyer restaurant</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>Dispositif d'accueil familial</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>Centre d'accueil familial spécialisé (CAFS)</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>Plateforme d'accompagnement et de répit</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>Foyer ou établissement d'accueil médicalisé (FAM ou EAM)</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>Maison d'accueil spécialisée (MAS)</t>
-  </si>
-  <si>
-    <t>Structure d'hébergement permanent et de soins pour adulte handicapé dépendant qui n'arrive pas à réaliser seul les actes de la vie courante (se nourrir, s'habiller...), elles proposent des activités quotidiennes d'éveil ou occupationnelles (musique, relaxation, activités manuelles…) et sont structurées autour d'unités de vie comprenant 8 à 10 chambres individuelles. Elles accueillent des personnes un peu plus dépendantes que la population hébergée en foyer d'accueil médicalisé (Fam)</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>EANM dont foyer de vie et foyer d'hébergement</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Foyer d'hébergement (Etablissement d'accueil non médicalisé)</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>Unité d'aide par le travail (ESAT)</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Etablissements et Service de Réadaptation Professionnelle (ESRP)</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>Unités évaluation réentraînement et orientation sociale et professionnel (UEROS)</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>Établissements et Services de Pré-Orientation (ESPO)</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>Plateforme Emploi Accompagné (PEA)</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>Institut médico-éducatif (IME)</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>Institut d'éducation motrice (IEM)</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Institut thérapeutique éducatif et pédagogique (ITEP)</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>Etablissement pour enfant ou ado polyhandicapé (EEAP)</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Institut déficient visuel</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Institut déficient auditif</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>Institut déficient Visuel et Auditif</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>Unité d'enseignement interne</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>Unité d'enseignement externalisée</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>Service d'Education Spécialisée de Soins à Domicile (SESSAD)</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>Service d'Accompagnement Familial et d'Education Précoce (SAFEP)</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>Services de Soutien à l'Education Familiale et à la Scolarisation (SSEFIS)</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>Serv Aide à l'Acquisition de l'Autono et à l'Intégration Sco (S3AIS)</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>Centre d'action médico-sociale précoce (CAMSP)</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>Centre médico-psycho-pédagogique (CMPP)</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>Jardin d'enfants spécialisé</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>Bureau d'Aide Psychologique Universitaire (B.A.P.U.)</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>Pôles de compétences et de prestations externalisées (PCPE)</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>Equipe Relai Handicap rare</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>Lieu de vie et d'accueil (hors ESMS)</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>Unité d'hospitalisation fermée</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>Consultation externe en établissement de santé</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>Unité d'intervention extra-hospitalière</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>Equipe de liaison et de soins (intra-hospitalière)</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>Guichet d'accueil, écoute, conseil, orientation</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>Gestion de cas MAIA</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>Logement inclusif</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Services Soins infirmiers à domicile renforcé (SSIAD renforcé)</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Unité d'évaluation et de régulation des admissions en psychiatrie</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>Equipe Mobile Psychiatrie et Précarité (EMPP)</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>Equipe Mobile Géronto-Psychiatrie (EMGP)</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>Equipe Mobile Ambulatoire de Réadaptation Spécialisé (EARS)</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>Centre de Soins, d'Accompagnement et de Prévention en Addictologie (CSAPA)</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>CAARUD</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>Pharmacie à Usage Intérieur (PUI)</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>Chambre mortuaire</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Plateforme de Coordination et d'Orientation (PCO)</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>Equipe Mobile Autisme</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>Consultation Jeune Consommateur (CJC)</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>Dispositif VigilanS</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>Dispositif expérimental</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>Centre de santé sexuelle</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>Equipe mobile de prévention du risque infectieux</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>Equipe opérationnelle d'hygiène (EOH)</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>Soins non programmés de ville</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Lits halte soins santé (LHSS)</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>Appartement de coordination thérapeutique (ACT)</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>Lits d'accueil médicalisés (L.A.M.)</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>Etablissement d'accueil non médicalisé (EANM) - foyer d'hébergement</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>Etablissement d'accueil non médicalisé (EANM) - foyer de vie</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>Espaces de vie affective, relationnelle et sexuelle (EVARS)</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>Maison de santé pluriprofessionnelle (MSP)</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) polyvalent</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) gériatrie</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) locomoteur</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) système nerveux</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) cardio-vasculaire</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) pneumologie</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) sys dig, endocrino, diabéto, nutrition</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) brûlés</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) conduites addictives</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) pédiatriques (enfants et adolescents)</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) pédiatriques (jeunes enfants, enf, ado)</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) oncologie</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) oncologie et hématologie</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>Centre de Réhabilitation Psychosociale</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>Centre Ressource pour les Interv. auprès des Aut. de Violences Sex. (CRIAVS)</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>Equipe Spécialisée de Soins Infirmiers Précarité (ESSIP)</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>Unité de chirurgie oncologique</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>Unité de radiothérapie</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>Unité de traitements médicamenteux systémiques du cancer</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>Unité mère-enfant</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>Centre de recours Troubles du Comportement Alimentaire (TCA)</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>Unité de réanimation</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>Unité de soins intensifs polyvalents (USIP) contiguë</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>Unité de soins intensifs polyvalents (USIP) dérogatoire</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>Unité de soins intensifs (USI) de spécialité (hors USIC, USINV, USIH)</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>Centre de protection maternelle et infantile (PMI)</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>Structure Douleur Chronique (SDC)</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>Centre régional du psychotraumatisme (CRP)</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>Unité d'hospitalisation à domicile socle</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>Unité d'hospitalisation à domicile ante et post-partum</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>Unité d'hospitalisation à domicile réadaptation</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>Unité d'hospitalisation à domicile enfants de moins de trois ans</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>Service autonomie à domicile (SAD) aide et soins</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>Maison des adolescents (MDA)</t>
-  </si>
-  <si>
-    <t>Structures ayant pour missions : l'accueil, l'information, la prévention et la promotion de la santé, l'accompagnement et la prise en charge multidisciplinaire (médecin, psychologue, juriste, infirmière ou infirmier, éducateur ou éducatrice, etc.) des adolescents et jeunes adultes, de leurs familles et des professionnels qui les entourent, pour répondre aux questions relatives à l'adolescence (sexualité, puberté, consommation de toxiques, santé mentale, etc.)</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>Points Accueil Ecoute Jeunes (PAEJ)</t>
-  </si>
-  <si>
-    <t>Petites structures  complémentaires des maisons des adolescents (MDA), qui  offrent une écoute, un accueil et une orientation aux jeunes âgés de 12 à 25 ans, ainsi qu'aux parents,  de façon inconditionnelle, gratuite et confidentielle, sans rendez-vous,  souhaitant recevoir un appui, un conseil, une orientation, des lors qu'ils rencontrent une difficulté concernant la santé de façon la plus large : mal être, souffrance, dévalorisation, échec, attitude conflictuelle, difficultés scolaires ou relationnelles, conduites de rupture, violentes ou dépendantes, décrochage social, scolaire.</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>Centre de ressources territorial (CRT)</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>Maison sport-santé</t>
-  </si>
-  <si>
-    <t>Lieu d'accompagnement et d'orientation  pour permettre à toute personne de pratiquer, développer ou reprendre  une activité physique ou sportive bénéfique pour sa santé</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>Unité de soins non programmés en établissement de santé</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>Unité de soins intensifs polyvalents (USIP) non contiguë</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>Equipe Mobile d'Appui à la Scolarisation (EMAS)</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>Espace Santé Jeune (ESJ)</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>Equipes Mobiles Santé Précarité (EMSP)</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>Communauté 360</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>Equipe Mobile de Psychiatrie de la Personne Âgée</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>Unité d'addictologie</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>Unité de prise en charge des brûlés</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Unité de sevrage complexe</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>Unité hospitalière d'allergologie</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de cardiologie</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de chirurgie orthopédique et traumatologique</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de chirurgie thoracique et cardiovasculaire</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de chirurgie vasculaire</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de chirurgie viscérale et digestive</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de dermatologie</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de génétique médicale</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de gériatrie</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de gynécologie et/ou obstétrique</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de médecine vasculaire</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de néphrologie</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de neurochirurgie</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de neurologie</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de pédiatrie</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de pneumologie</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de radiologie</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de rhumatologie</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de stomatologie, chirurgie orale et maxillo faciale</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>Unité hospitalière d'endocrinologie, diabétologie et nutrition</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>Unité hospitalière des maladies infectieuses et tropicales</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>Unité hospitalière d'hématologie</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>Unité hospitalière d'hépato-gastro-entérologie (HGE)</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>Unité hospitalière d'oncologie</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>Unité hospitalière d'ophtalmologie</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>Unité hospitalière oto-rhino-laryngologie (ORL)</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>Unité psychiatrique</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>Unités de soins palliatifs</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de médecine interne</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>Dispositif de consultation dédié pour les personnes en situation de handicap</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>Dispositif d'Appui à la Coordination (DAC)</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'oto-rhino-laryngologie (ORL)</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'allergologie</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'anatomo-cytopathologie</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'anesthésie-réanimation</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de cardiologie</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de chirurgie orthopédique et traumatologique</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de chirurgie pédiatrique</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de chirurgie plastique</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de chirurgie thoracique et cardiovasculaire</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de chirurgie vasculaire</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de chirurgie viscérale et digestive</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de dermatologie</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de diététique</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de génétique médicale</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de gériatrie</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de gynécologie et/ou obstétrique</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de kinésithérapie</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de médecine générale</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de médecine interne</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de médecine légale et expertise médicale</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de médecine nucléaire</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de médecine physique et réadaptation (MPR)</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de médecine vasculaire</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de néphrologie</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de neurochirurgie</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de neurologie</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de pédiatrie</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de pédicure-podologie</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de pneumologie</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de psychiatrie</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de psychologie</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de psychomotricité</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de radiologie</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de rhumatologie</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de sages-femmes</t>
-  </si>
-  <si>
-    <t>214</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de stomatologie, chirurgie orale et maxillo faciale</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'endocrinologie, diabétologie et nutrition</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'ergothérapie</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>Cabinet de ville des maladies infectieuses et tropicales (MIT)</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'hématologie</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'hépato-gastro-entérologie</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'oncologie</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'ophtalmologie</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'orthophonie</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'orthoptie</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'urologie</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>Cabinet de ville infirmier</t>
-  </si>
-  <si>
-    <t>226</t>
-  </si>
-  <si>
-    <t>Cabinet dentaire de chirurgie dentaire</t>
-  </si>
-  <si>
-    <t>227</t>
-  </si>
-  <si>
-    <t>Cabinet dentaire de chirurgie orale</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>Cabinet dentaire de médecine bucco-dentaire</t>
-  </si>
-  <si>
-    <t>229</t>
-  </si>
-  <si>
-    <t>Cabinet dentaire d'orthopédie dento-faciale</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>Unité hospitalière d'anatomo-cytopathologie</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de médecine du sport</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de médecine légale et expertise médicale</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de médecine physique et réadaptation (MPR)</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>Unité hospitalière d'urologie</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de médecine générale</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>Unité hospitalière d'odontologie</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>Unité hospitalière d'anesthésie</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>Unité de médecine polyvalente</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de médecine nucléaire</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de médecine du travail</t>
-  </si>
-  <si>
-    <t>241</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de chirurgie pédiatrique</t>
-  </si>
-  <si>
-    <t>242</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de chirurgie plastique, reconstructrice et esthétique</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de médecine intensive et réanimation (MIR)</t>
-  </si>
-  <si>
-    <t>244</t>
-  </si>
-  <si>
-    <t>Equipe Mobile d'Expertise en Réadaptation (EMER) neuro-locomoteur</t>
-  </si>
-  <si>
-    <t>245</t>
-  </si>
-  <si>
-    <t>Centre expert en maladies rares</t>
-  </si>
-  <si>
-    <t>246</t>
-  </si>
-  <si>
-    <t>Service d'Aide Médicale Urgente (SAMU)</t>
-  </si>
-  <si>
-    <t>247</t>
-  </si>
-  <si>
-    <t>Structure Mobile d'Urgence et de Réanimation (SMUR)</t>
-  </si>
-  <si>
-    <t>248</t>
-  </si>
-  <si>
-    <t>Unité de biologie</t>
-  </si>
-  <si>
-    <t>249</t>
-  </si>
-  <si>
-    <t>Unité de Soins de Longue Durée (USLD)</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>Centres Gratuits d'Information, de Dépistage et de Diagnostic (CeGIDD)</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
-    <t>Centre Périnatal de Proximité (CPP)</t>
-  </si>
-  <si>
-    <t>252</t>
-  </si>
-  <si>
-    <t>Equipes Mobiles de Soins Palliatifs (EMSP)</t>
-  </si>
-  <si>
-    <t>253</t>
-  </si>
-  <si>
-    <t>Equipe Ressource Régionale de Soins Palliatifs Pédiatriques (ERRSPP)</t>
-  </si>
-  <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>Unité de surveillance continue</t>
-  </si>
-  <si>
-    <t>255</t>
-  </si>
-  <si>
-    <t>Communauté Professionnelle Territoriale de Santé (CPTS)</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>Etablissement d'accueil temporaire pour adultes handicapés</t>
-  </si>
-  <si>
-    <t>257</t>
-  </si>
-  <si>
-    <t>Unité pour Personnes Handicapées Vieillissantes (UPHV)</t>
-  </si>
-  <si>
-    <t>258</t>
-  </si>
-  <si>
-    <t>Hébergement Temporaire d'urgence en Sortie d'Hospitalisation</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>Point d'information local dédié aux personnes âgées</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>Relayage au domicile</t>
-  </si>
-  <si>
-    <t>261</t>
-  </si>
-  <si>
-    <t>Accueil familial pour personne âgée</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>Unité de soins intensifs spécialisés cardiologie (USIC)</t>
-  </si>
-  <si>
-    <t>263</t>
-  </si>
-  <si>
-    <t>Unité de soins intensifs spécialisés neurologie vasculaire (USINV)</t>
-  </si>
-  <si>
-    <t>264</t>
-  </si>
-  <si>
-    <t>Unité de soins intensifs spécialisés hématologie (USIH)</t>
-  </si>
-  <si>
-    <t>265</t>
-  </si>
-  <si>
-    <t>Equipe mobile d'algologie</t>
-  </si>
-  <si>
-    <t>266</t>
-  </si>
-  <si>
-    <t>Equipe mobile de gériatrie (EMG)</t>
-  </si>
-  <si>
-    <t>267</t>
-  </si>
-  <si>
-    <t>Equipe mobile d'endocrinologie, diabétologie, métabolisme et nutrition</t>
-  </si>
-  <si>
-    <t>268</t>
-  </si>
-  <si>
-    <t>Centre de lutte antituberculeuse (CLAT)</t>
-  </si>
-  <si>
-    <t>269</t>
-  </si>
-  <si>
-    <t>Centre de vaccination</t>
-  </si>
-  <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>Centre de vaccination internationale</t>
-  </si>
-  <si>
-    <t>271</t>
-  </si>
-  <si>
-    <t>Dialyse à Domicile</t>
-  </si>
-  <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>Equipe de Liaison et de Soins en Addictologie (ELSA)</t>
-  </si>
-  <si>
-    <t>273</t>
-  </si>
-  <si>
-    <t>Unité d’auto-dialyse assistée (UAD)</t>
-  </si>
-  <si>
-    <t>274</t>
-  </si>
-  <si>
-    <t>Unité de dialyse en centre lourd</t>
-  </si>
-  <si>
     <t>Unité de dialyse Médicalisée (UDM)</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>Unité d’Accueil et de Soins pour personnes Sourdes et malentendantes (UASS)</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>Equipe de coordination hospitalière de tissus et/ou d’organes</t>
+  </si>
+  <si>
+    <t>Unité Hospitalière de Courte Durée (UHCD)</t>
   </si>
 </sst>
 </file>
@@ -2262,7 +2280,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D276"/>
+  <dimension ref="A1:D279"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5583,12 +5601,48 @@
         <v>58</v>
       </c>
       <c r="B276" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="C276" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="D276" s="2"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B277" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="C277" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="D277" s="2"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B278" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="C278" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="D278" s="2"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B279" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="C276" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="D276" s="2"/>
+      <c r="C279" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="D279" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/www/terminologies/CodeSystem-TRE-R244-CategorieOrganisation.xlsx
+++ b/www/terminologies/CodeSystem-TRE-R244-CategorieOrganisation.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250710120000</t>
+    <t>20250828120000</t>
   </si>
   <si>
     <t>Name</t>
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-10T12:00:00+01:00</t>
+    <t>2025-08-28T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -469,7 +469,7 @@
     <t>46</t>
   </si>
   <si>
-    <t>Établissements et Services de Pré-Orientation (ESPO)</t>
+    <t>Établissement et Service de Pré-Orientation (ESPO)</t>
   </si>
   <si>
     <t>47</t>
@@ -1747,7 +1747,7 @@
     <t>258</t>
   </si>
   <si>
-    <t>Hébergement Temporaire d'urgence en Sortie d'Hospitalisation</t>
+    <t>Hébergement Temporaire d'urgence (dont HT-SH)</t>
   </si>
   <si>
     <t>259</t>

--- a/www/terminologies/CodeSystem-TRE-R244-CategorieOrganisation.xlsx
+++ b/www/terminologies/CodeSystem-TRE-R244-CategorieOrganisation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="630">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250828120000</t>
+    <t>20251017120000</t>
   </si>
   <si>
     <t>Name</t>
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T12:00:00+01:00</t>
+    <t>2025-10-17T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -118,1753 +118,1792 @@
     <t>Count</t>
   </si>
   <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Uri</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>dateValid</t>
+  </si>
+  <si>
+    <t>date de validité d'un code concept</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>dateMaj</t>
+  </si>
+  <si>
+    <t>Date de mise à jour d'un code concept</t>
+  </si>
+  <si>
+    <t>dateFin</t>
+  </si>
+  <si>
+    <t>Date de fin d'exploitation d'un code concept</t>
+  </si>
+  <si>
+    <t>deprecationDate</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/concept-properties#deprecationDate</t>
+  </si>
+  <si>
+    <t>Date Concept was deprecated</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/concept-properties#status</t>
+  </si>
+  <si>
+    <t>A property that indicates the status of the concept.</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>retirementDate</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/concept-properties#retirementDate</t>
+  </si>
+  <si>
+    <t>Date Concept was retired</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Appartement thérapeutique</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Atelier thérapeutique</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Cellule d'Urgences Médico-Psychologique (CUMP)</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Centre d'Accueil Permanent (CAP)</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Centre d’Activités Thérapeutiques et de Temps de Groupe (CATTG) – ex CATTP</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Centre de crise</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>Centre de post-cure</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>Centre de Ressources Autisme (CRA)</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>Centre Expert</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Centre Médico-Psychologique (CMP) Adulte</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Hôpital De Jour (HDJ)</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Hôpital De Nuit (HDN)</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Service d'Accueil Familial Thérapeutique</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Service Médico-Psychologique Régional (SMPR)</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Unité de Soins Intensifs Psychiatriques (USIP)</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Unité d'hospitalisation (hors HDJ)</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Unité Hospitalière Spécialement Aménagé (UHSA)</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Unité Malade Difficile (UMD)</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Unités Soins Etudes</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Unité d'urgences</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Accueil ou hébergement pour personnes âgées dépendantes, sans spécificité</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Accueil ou hébergement pour personnes âgées autonomes, sans spécificité</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Accueil pour personnes âgées dépendantes, avec spécificité UHR</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Accueil pour personnes âgées dépendantes, avec spécificité Unité de vie protégée</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Pôle d'activité de Soins Adaptés (PASA)</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Accueil ou hébergement personnes âgées dépendantes, avec spécificité PUV</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Accueil pour personnes âgées autonomes, avec spécificité MARPA</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Services Soins infirmiers à domicile (SSIAD)</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Equipe spécialisée Alzheimer (ESA)</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Service autonomie à domicile (SAD) aide</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Service d'Accompagnement à la Vie Sociale (SAVS)</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Service d'accompagnement médico-social adultes handicapés (SAMSAH)</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Service de portage de repas à domicile</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Service de Téléassistance</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Foyer restaurant</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Dispositif d'accueil familial</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Centre d'accueil familial spécialisé (CAFS)</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Plateforme d'accompagnement et de répit</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Foyer ou établissement d'accueil médicalisé (FAM ou EAM)</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Maison d'accueil spécialisée (MAS)</t>
+  </si>
+  <si>
+    <t>Structure d'hébergement permanent et de soins pour adulte handicapé dépendant qui n'arrive pas à réaliser seul les actes de la vie courante (se nourrir, s'habiller...), elles proposent des activités quotidiennes d'éveil ou occupationnelles (musique, relaxation, activités manuelles…) et sont structurées autour d'unités de vie comprenant 8 à 10 chambres individuelles. Elles accueillent des personnes un peu plus dépendantes que la population hébergée en foyer d'accueil médicalisé (Fam)</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>EANM dont foyer de vie et foyer d'hébergement</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Foyer d'hébergement (Etablissement d'accueil non médicalisé)</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Unité d'aide par le travail (ESAT)</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Etablissements et Service de Réadaptation Professionnelle (ESRP)</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Unités évaluation réentraînement et orientation sociale et professionnel (UEROS)</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Établissement et Service de Préorientation (ESPO)</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Plateforme Emploi Accompagné (PEA)</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Institut médico-éducatif (IME)</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Institut d'éducation motrice (IEM)</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Institut thérapeutique éducatif et pédagogique (ITEP)</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Etablissement pour enfant ou ado polyhandicapé (EEAP)</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Institut déficient visuel</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Institut déficient auditif</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Institut déficient Visuel et Auditif</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Unité d'enseignement interne</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>Unité d'enseignement externalisée</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>Service d'Education Spécialisée de Soins à Domicile (SESSAD)</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>Service d'Accompagnement Familial et d'Education Précoce (SAFEP)</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>Services de Soutien à l'Education Familiale et à la Scolarisation (SSEFIS)</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Serv Aide à l'Acquisition de l'Autono et à l'Intégration Sco (S3AIS)</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>Centre d'action médico-sociale précoce (CAMSP)</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>Centre médico-psycho-pédagogique (CMPP)</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>Jardin d'enfants spécialisé</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>Bureau d'Aide Psychologique Universitaire (B.A.P.U.)</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>Pôle de compétences et de prestations externalisées (PCPE)</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>Equipe Relai Handicap rare</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>Lieu de vie et d'accueil (hors ESMS)</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>Unité d'hospitalisation fermée</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Consultation externe en établissement de santé</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>Unité d'intervention extra-hospitalière</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Equipe de liaison et de soins (intra-hospitalière)</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>Guichet d'accueil, écoute, conseil, orientation</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>Gestion de cas MAIA</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>Logement inclusif</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Services Soins infirmiers à domicile renforcé (SSIAD renforcé)</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Unité d'évaluation et de régulation des admissions en psychiatrie</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>Equipe Mobile Psychiatrie et Précarité (EMPP)</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>Equipe Mobile Géronto-Psychiatrie (EMGP)</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>Equipe Mobile Ambulatoire de Réadaptation Spécialisé (EARS)</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Centre de Soins, d'Accompagnement et de Prévention en Addictologie (CSAPA)</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>CAARUD</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>Pharmacie à Usage Intérieur (PUI)</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>Chambre mortuaire</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Plateforme de Coordination et d'Orientation (PCO)</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>Equipe Mobile Autisme</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>Consultation Jeune Consommateur (CJC)</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>Dispositif VigilanS</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>Dispositif expérimental</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>Centre de santé sexuelle</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>Equipe mobile de prévention du risque infectieux</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Equipe opérationnelle d'hygiène (EOH)</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>Soins non programmés de ville</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Lits halte soins santé (LHSS)</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Appartement de coordination thérapeutique (ACT)</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>Lits d'accueil médicalisés (L.A.M.)</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>Etablissement d'accueil non médicalisé (EANM) - foyer d'hébergement</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>Etablissement d'accueil non médicalisé (EANM) - foyer de vie</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>Espaces de vie affective, relationnelle et sexuelle (EVARS)</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>Maison de santé pluriprofessionnelle (MSP)</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) polyvalent</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) gériatrie</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) locomoteur</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) système nerveux</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) cardio-vasculaire</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) pneumologie</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) sys dig, endocrino, diabéto, nutrition</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) brûlés</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) conduites addictives</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) pédiatriques (enfants et adolescents)</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) pédiatriques (jeunes enfants, enf, ado)</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) oncologie</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) oncologie et hématologie</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>Centre de Réhabilitation Psychosociale</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>Centre Ressource pour les Interv. auprès des Aut. de Violences Sex. (CRIAVS)</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>Equipe Spécialisée de Soins Infirmiers Précarité (ESSIP)</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>Unité de chirurgie oncologique</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>Unité de radiothérapie</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>Unité de traitements médicamenteux systémiques du cancer</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>Unité mère-enfant</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>Centre de recours Troubles du Comportement Alimentaire (TCA)</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>Unité de réanimation</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>Unité de soins intensifs polyvalents (USIP) contiguë</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Unité de soins intensifs polyvalents (USIP) dérogatoire</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>Unité de soins intensifs (USI) de spécialité (hors USIC, USINV, USIH)</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>Centre de protection maternelle et infantile (PMI)</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>Structure Douleur Chronique (SDC)</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>Centre régional du psychotraumatisme (CRP)</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>Unité d'hospitalisation à domicile socle</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>Unité d'hospitalisation à domicile ante et post-partum</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>Unité d'hospitalisation à domicile réadaptation</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>Unité d'hospitalisation à domicile enfants de moins de trois ans</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>Service autonomie à domicile (SAD) aide et soins</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>Maison des adolescents (MDA)</t>
+  </si>
+  <si>
+    <t>Structures ayant pour missions : l'accueil, l'information, la prévention et la promotion de la santé, l'accompagnement et la prise en charge multidisciplinaire (médecin, psychologue, juriste, infirmière ou infirmier, éducateur ou éducatrice, etc.) des adolescents et jeunes adultes, de leurs familles et des professionnels qui les entourent, pour répondre aux questions relatives à l'adolescence (sexualité, puberté, consommation de toxiques, santé mentale, etc.)</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>Points Accueil Ecoute Jeunes (PAEJ)</t>
+  </si>
+  <si>
+    <t>Petites structures  complémentaires des maisons des adolescents (MDA), qui  offrent une écoute, un accueil et une orientation aux jeunes âgés de 12 à 25 ans, ainsi qu'aux parents,  de façon inconditionnelle, gratuite et confidentielle, sans rendez-vous,  souhaitant recevoir un appui, un conseil, une orientation, des lors qu'ils rencontrent une difficulté concernant la santé de façon la plus large : mal être, souffrance, dévalorisation, échec, attitude conflictuelle, difficultés scolaires ou relationnelles, conduites de rupture, violentes ou dépendantes, décrochage social, scolaire.</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>Centre de ressources territorial (CRT)</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>Maison sport-santé</t>
+  </si>
+  <si>
+    <t>Lieu d'accompagnement et d'orientation  pour permettre à toute personne de pratiquer, développer ou reprendre  une activité physique ou sportive bénéfique pour sa santé</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>Unité de soins non programmés en établissement de santé</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>Unité de soins intensifs polyvalents (USIP) non contiguë</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>Equipe Mobile d'Appui à la Scolarisation (EMAS)</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>Espace Santé Jeune (ESJ)</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>Equipes Mobiles Santé Précarité (EMSP)</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>Communauté 360</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>Equipe Mobile de Psychiatrie de la Personne Âgée</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>Unité d'addictologie</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>Unité de prise en charge des brûlés</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Unité de sevrage complexe</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>Unité hospitalière d'allergologie</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de cardiologie</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de chirurgie orthopédique et traumatologique</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de chirurgie thoracique et cardiovasculaire</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de chirurgie vasculaire</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de chirurgie viscérale et digestive</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de dermatologie</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de génétique médicale</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de gériatrie</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de gynécologie et/ou obstétrique</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de médecine vasculaire</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de néphrologie</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de neurochirurgie</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de neurologie</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de pédiatrie</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de pneumologie</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de radiologie</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de rhumatologie</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de stomatologie, chirurgie orale et maxillo faciale</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>Unité hospitalière d'endocrinologie, diabétologie et nutrition</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>Unité hospitalière des maladies infectieuses et tropicales</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>Unité hospitalière d'hématologie</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>Unité hospitalière d'hépato-gastro-entérologie (HGE)</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>Unité hospitalière d'oncologie</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>Unité hospitalière d'ophtalmologie</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>Unité hospitalière oto-rhino-laryngologie (ORL)</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de psychiatrie de l’adulte</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>Unités de soins palliatifs</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de médecine interne</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>Dispositif de consultation dédié pour les personnes en situation de handicap</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>Dispositif d'Appui à la Coordination (DAC)</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'oto-rhino-laryngologie (ORL)</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'allergologie</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'anatomo-cytopathologie</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'anesthésie-réanimation</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de cardiologie</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de chirurgie orthopédique et traumatologique</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de chirurgie pédiatrique</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de chirurgie plastique</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de chirurgie thoracique et cardiovasculaire</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de chirurgie vasculaire</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de chirurgie viscérale et digestive</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de dermatologie</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de diététique</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de génétique médicale</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de gériatrie</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de gynécologie et/ou obstétrique</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de kinésithérapie</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de médecine générale</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de médecine interne</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de médecine légale et expertise médicale</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de médecine nucléaire</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de médecine physique et réadaptation (MPR)</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de médecine vasculaire</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de néphrologie</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de neurochirurgie</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de neurologie</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de pédiatrie</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de pédicure-podologie</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de pneumologie</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de psychiatrie</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de psychologie</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de psychomotricité</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de radiologie</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de rhumatologie</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de sages-femmes</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de stomatologie, chirurgie orale et maxillo faciale</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'endocrinologie, diabétologie et nutrition</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'ergothérapie</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>Cabinet de ville des maladies infectieuses et tropicales (MIT)</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'hématologie</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'hépato-gastro-entérologie</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'oncologie</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'ophtalmologie</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'orthophonie</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'orthoptie</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'urologie</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>Cabinet de ville infirmier</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>Cabinet dentaire de chirurgie dentaire</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>Cabinet dentaire de chirurgie orale</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>Cabinet dentaire de médecine bucco-dentaire</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>Cabinet dentaire d'orthopédie dento-faciale</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>Unité hospitalière d'anatomo-cytopathologie</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de médecine du sport</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de médecine légale et expertise médicale</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de médecine physique et réadaptation (MPR)</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>Unité hospitalière d'urologie</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de médecine générale</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>Unité hospitalière d'odontologie</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>Unité hospitalière d'anesthésie</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de médecine polyvalente</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de médecine nucléaire</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de médecine du travail</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de chirurgie pédiatrique</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de chirurgie plastique, reconstructrice et esthétique</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de médecine intensive et réanimation (MIR)</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>Equipe Mobile d'Expertise en Réadaptation (EMER) neuro-locomoteur</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>Centre expert en maladies rares</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>Service d'Aide Médicale Urgente (SAMU)</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>Structure Mobile d'Urgence et de Réanimation (SMUR)</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>Unité de biologie</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>Unité de Soins de Longue Durée (USLD)</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>Centres Gratuits d'Information, de Dépistage et de Diagnostic (CeGIDD)</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>Centre Périnatal de Proximité (CPP)</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>Equipes Mobiles de Soins Palliatifs (EMSP)</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>Equipe Ressource Régionale de Soins Palliatifs Pédiatriques (ERRSPP)</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>Unité de surveillance continue</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>Communauté Professionnelle Territoriale de Santé (CPTS)</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>Etablissement d'accueil temporaire pour adultes handicapés</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>Unité pour Personnes Handicapées Vieillissantes (UPHV - UPHA)</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>Hébergement Temporaire d'urgence (dont HT-SH)</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>Point d'information local dédié aux personnes âgées</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>Relayage au domicile</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>Accueil familial pour personne âgée</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>Unité de soins intensifs spécialisés cardiologie (USIC)</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>Unité de soins intensifs spécialisés neurologie vasculaire (USINV)</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>Unité de soins intensifs spécialisés hématologie (USIH)</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>Equipe mobile d'algologie</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>Equipe mobile de gériatrie (EMG)</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>Equipe mobile d'endocrinologie, diabétologie, métabolisme et nutrition</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>Centre de lutte antituberculeuse (CLAT)</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>Centre de vaccination</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>Centre de vaccination internationale</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>Dialyse à Domicile</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>Equipe de Liaison et de Soins en Addictologie (ELSA)</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>Unité d’auto-dialyse assistée (UAD)</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>Unité de dialyse en centre lourd</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>Unité de dialyse Médicalisée (UDM)</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>Unité d’Accueil et de Soins pour personnes Sourdes et malentendantes (UASS)</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>Equipe de coordination hospitalière de tissus et/ou d’organes</t>
+  </si>
+  <si>
+    <t>Il s'agit d'une équipe hospitalière pluridisciplinaire chargée d’identifier les donneurs potentiels d’organes et de tissus, d’organiser et de coordonner les prélèvements, en garantissant le respect des règles légales, éthiques et de sécurité sanitaire, ainsi que l’accompagnement des proches. Elle assure la liaison entre les services hospitaliers, les équipes de greffe et l’Agence de la biomédecine pour la traçabilité et la qualité du don.</t>
+  </si>
+  <si>
     <t>278</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Uri</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>dateValid</t>
-  </si>
-  <si>
-    <t>date de validité d'un code concept</t>
-  </si>
-  <si>
-    <t>dateTime</t>
-  </si>
-  <si>
-    <t>dateMaj</t>
-  </si>
-  <si>
-    <t>Date de mise à jour d'un code concept</t>
-  </si>
-  <si>
-    <t>dateFin</t>
-  </si>
-  <si>
-    <t>Date de fin d'exploitation d'un code concept</t>
-  </si>
-  <si>
-    <t>deprecationDate</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/concept-properties#deprecationDate</t>
-  </si>
-  <si>
-    <t>Date Concept was deprecated</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/concept-properties#status</t>
-  </si>
-  <si>
-    <t>A property that indicates the status of the concept.</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>retirementDate</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/concept-properties#retirementDate</t>
-  </si>
-  <si>
-    <t>Date Concept was retired</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>Appartement thérapeutique</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Atelier thérapeutique</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Cellule d'Urgences Médico-Psychologique (CUMP)</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>Centre d'Accueil Permanent (CAP)</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>Centre d'Accueil Thérapeutique à Temps Partiel (CATTP)</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Centre de crise</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>Centre de post-cure</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>Centre de Ressources Autisme (CRA)</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>Centre Expert</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Centre Médico-Psychologique (CMP)</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Hôpital De Jour (HDJ)</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Hôpital De Nuit (HDN)</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Service d'Accueil Familial Thérapeutique</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Service Médico-Psychologique Régional (SMPR)</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Unité de Soins Intensifs Psychiatriques (USIP)</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Unité d'hospitalisation (hors HDJ)</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Unité Hospitalière Spécialement Aménagé (UHSA)</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Unité Malade Difficile (UMD)</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Unités Soins Etudes</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Unité d'urgences</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Accueil ou hébergement pour personnes âgées dépendantes, sans spécificité</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Accueil ou hébergement pour personnes âgées autonomes, sans spécificité</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Accueil pour personnes âgées dépendantes, avec spécificité UHR</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Accueil pour personnes âgées dépendantes, avec spécificité Unité de vie protégée</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Pôle d'activité de Soins Adaptés (PASA)</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Accueil ou hébergement personnes âgées dépendantes, avec spécificité PUV</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Accueil pour personnes âgées autonomes, avec spécificité MARPA</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Services Soins infirmiers à domicile (SSIAD)</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Equipe spécialisée Alzheimer (ESA)</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>Service autonomie à domicile (SAD) aide</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>Service d'Accompagnement à la Vie Sociale (SAVS)</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Service d'accompagnement médico-social adultes handicapés (SAMSAH)</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>Service de portage de repas à domicile</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>Service de Téléassistance</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>Foyer restaurant</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>Dispositif d'accueil familial</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>Centre d'accueil familial spécialisé (CAFS)</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>Plateforme d'accompagnement et de répit</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>Foyer ou établissement d'accueil médicalisé (FAM ou EAM)</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>Maison d'accueil spécialisée (MAS)</t>
-  </si>
-  <si>
-    <t>Structure d'hébergement permanent et de soins pour adulte handicapé dépendant qui n'arrive pas à réaliser seul les actes de la vie courante (se nourrir, s'habiller...), elles proposent des activités quotidiennes d'éveil ou occupationnelles (musique, relaxation, activités manuelles…) et sont structurées autour d'unités de vie comprenant 8 à 10 chambres individuelles. Elles accueillent des personnes un peu plus dépendantes que la population hébergée en foyer d'accueil médicalisé (Fam)</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>EANM dont foyer de vie et foyer d'hébergement</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Foyer d'hébergement (Etablissement d'accueil non médicalisé)</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>Unité d'aide par le travail (ESAT)</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Etablissements et Service de Réadaptation Professionnelle (ESRP)</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>Unités évaluation réentraînement et orientation sociale et professionnel (UEROS)</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>Établissement et Service de Pré-Orientation (ESPO)</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>Plateforme Emploi Accompagné (PEA)</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>Institut médico-éducatif (IME)</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>Institut d'éducation motrice (IEM)</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Institut thérapeutique éducatif et pédagogique (ITEP)</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>Etablissement pour enfant ou ado polyhandicapé (EEAP)</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Institut déficient visuel</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Institut déficient auditif</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>Institut déficient Visuel et Auditif</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>Unité d'enseignement interne</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>Unité d'enseignement externalisée</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>Service d'Education Spécialisée de Soins à Domicile (SESSAD)</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>Service d'Accompagnement Familial et d'Education Précoce (SAFEP)</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>Services de Soutien à l'Education Familiale et à la Scolarisation (SSEFIS)</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>Serv Aide à l'Acquisition de l'Autono et à l'Intégration Sco (S3AIS)</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>Centre d'action médico-sociale précoce (CAMSP)</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>Centre médico-psycho-pédagogique (CMPP)</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>Jardin d'enfants spécialisé</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>Bureau d'Aide Psychologique Universitaire (B.A.P.U.)</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>Pôle de compétences et de prestations externalisées (PCPE)</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>Equipe Relai Handicap rare</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>Lieu de vie et d'accueil (hors ESMS)</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>Unité d'hospitalisation fermée</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>Consultation externe en établissement de santé</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>Unité d'intervention extra-hospitalière</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>Equipe de liaison et de soins (intra-hospitalière)</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>Guichet d'accueil, écoute, conseil, orientation</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>Gestion de cas MAIA</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>Logement inclusif</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Services Soins infirmiers à domicile renforcé (SSIAD renforcé)</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Unité d'évaluation et de régulation des admissions en psychiatrie</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>Equipe Mobile Psychiatrie et Précarité (EMPP)</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>Equipe Mobile Géronto-Psychiatrie (EMGP)</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>Equipe Mobile Ambulatoire de Réadaptation Spécialisé (EARS)</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>Centre de Soins, d'Accompagnement et de Prévention en Addictologie (CSAPA)</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>CAARUD</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>Pharmacie à Usage Intérieur (PUI)</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>Chambre mortuaire</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Plateforme de Coordination et d'Orientation (PCO)</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>Equipe Mobile Autisme</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>Consultation Jeune Consommateur (CJC)</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>Dispositif VigilanS</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>Dispositif expérimental</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>Centre de santé sexuelle</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>Equipe mobile de prévention du risque infectieux</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>Equipe opérationnelle d'hygiène (EOH)</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>Soins non programmés de ville</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Lits halte soins santé (LHSS)</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>Appartement de coordination thérapeutique (ACT)</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>Lits d'accueil médicalisés (L.A.M.)</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>Etablissement d'accueil non médicalisé (EANM) - foyer d'hébergement</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>Etablissement d'accueil non médicalisé (EANM) - foyer de vie</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>Espaces de vie affective, relationnelle et sexuelle (EVARS)</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>Maison de santé pluriprofessionnelle (MSP)</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) polyvalent</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) gériatrie</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) locomoteur</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) système nerveux</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) cardio-vasculaire</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) pneumologie</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) sys dig, endocrino, diabéto, nutrition</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) brûlés</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) conduites addictives</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) pédiatriques (enfants et adolescents)</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) pédiatriques (jeunes enfants, enf, ado)</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) oncologie</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) oncologie et hématologie</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>Centre de Réhabilitation Psychosociale</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>Centre Ressource pour les Interv. auprès des Aut. de Violences Sex. (CRIAVS)</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>Equipe Spécialisée de Soins Infirmiers Précarité (ESSIP)</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>Unité de chirurgie oncologique</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>Unité de radiothérapie</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>Unité de traitements médicamenteux systémiques du cancer</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>Unité mère-enfant</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>Centre de recours Troubles du Comportement Alimentaire (TCA)</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>Unité de réanimation</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>Unité de soins intensifs polyvalents (USIP) contiguë</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>Unité de soins intensifs polyvalents (USIP) dérogatoire</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>Unité de soins intensifs (USI) de spécialité (hors USIC, USINV, USIH)</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>Centre de protection maternelle et infantile (PMI)</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>Structure Douleur Chronique (SDC)</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>Centre régional du psychotraumatisme (CRP)</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>Unité d'hospitalisation à domicile socle</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>Unité d'hospitalisation à domicile ante et post-partum</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>Unité d'hospitalisation à domicile réadaptation</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>Unité d'hospitalisation à domicile enfants de moins de trois ans</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>Service autonomie à domicile (SAD) aide et soins</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>Maison des adolescents (MDA)</t>
-  </si>
-  <si>
-    <t>Structures ayant pour missions : l'accueil, l'information, la prévention et la promotion de la santé, l'accompagnement et la prise en charge multidisciplinaire (médecin, psychologue, juriste, infirmière ou infirmier, éducateur ou éducatrice, etc.) des adolescents et jeunes adultes, de leurs familles et des professionnels qui les entourent, pour répondre aux questions relatives à l'adolescence (sexualité, puberté, consommation de toxiques, santé mentale, etc.)</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>Points Accueil Ecoute Jeunes (PAEJ)</t>
-  </si>
-  <si>
-    <t>Petites structures  complémentaires des maisons des adolescents (MDA), qui  offrent une écoute, un accueil et une orientation aux jeunes âgés de 12 à 25 ans, ainsi qu'aux parents,  de façon inconditionnelle, gratuite et confidentielle, sans rendez-vous,  souhaitant recevoir un appui, un conseil, une orientation, des lors qu'ils rencontrent une difficulté concernant la santé de façon la plus large : mal être, souffrance, dévalorisation, échec, attitude conflictuelle, difficultés scolaires ou relationnelles, conduites de rupture, violentes ou dépendantes, décrochage social, scolaire.</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>Centre de ressources territorial (CRT)</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>Maison sport-santé</t>
-  </si>
-  <si>
-    <t>Lieu d'accompagnement et d'orientation  pour permettre à toute personne de pratiquer, développer ou reprendre  une activité physique ou sportive bénéfique pour sa santé</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>Unité de soins non programmés en établissement de santé</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>Unité de soins intensifs polyvalents (USIP) non contiguë</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>Equipe Mobile d'Appui à la Scolarisation (EMAS)</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>Espace Santé Jeune (ESJ)</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>Equipes Mobiles Santé Précarité (EMSP)</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>Communauté 360</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>Equipe Mobile de Psychiatrie de la Personne Âgée</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>Unité d'addictologie</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>Unité de prise en charge des brûlés</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Unité de sevrage complexe</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>Unité hospitalière d'allergologie</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de cardiologie</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de chirurgie orthopédique et traumatologique</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de chirurgie thoracique et cardiovasculaire</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de chirurgie vasculaire</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de chirurgie viscérale et digestive</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de dermatologie</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de génétique médicale</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de gériatrie</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de gynécologie et/ou obstétrique</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de médecine vasculaire</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de néphrologie</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de neurochirurgie</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de neurologie</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de pédiatrie</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de pneumologie</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de radiologie</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de rhumatologie</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de stomatologie, chirurgie orale et maxillo faciale</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>Unité hospitalière d'endocrinologie, diabétologie et nutrition</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>Unité hospitalière des maladies infectieuses et tropicales</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>Unité hospitalière d'hématologie</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>Unité hospitalière d'hépato-gastro-entérologie (HGE)</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>Unité hospitalière d'oncologie</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>Unité hospitalière d'ophtalmologie</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>Unité hospitalière oto-rhino-laryngologie (ORL)</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>Unité psychiatrique</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>Unités de soins palliatifs</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de médecine interne</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>Dispositif de consultation dédié pour les personnes en situation de handicap</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>Dispositif d'Appui à la Coordination (DAC)</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'oto-rhino-laryngologie (ORL)</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'allergologie</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'anatomo-cytopathologie</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'anesthésie-réanimation</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de cardiologie</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de chirurgie orthopédique et traumatologique</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de chirurgie pédiatrique</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de chirurgie plastique</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de chirurgie thoracique et cardiovasculaire</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de chirurgie vasculaire</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de chirurgie viscérale et digestive</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de dermatologie</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de diététique</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de génétique médicale</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de gériatrie</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de gynécologie et/ou obstétrique</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de kinésithérapie</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de médecine générale</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de médecine interne</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de médecine légale et expertise médicale</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de médecine nucléaire</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de médecine physique et réadaptation (MPR)</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de médecine vasculaire</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de néphrologie</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de neurochirurgie</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de neurologie</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de pédiatrie</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de pédicure-podologie</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de pneumologie</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de psychiatrie</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de psychologie</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de psychomotricité</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de radiologie</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de rhumatologie</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de sages-femmes</t>
-  </si>
-  <si>
-    <t>214</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de stomatologie, chirurgie orale et maxillo faciale</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'endocrinologie, diabétologie et nutrition</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'ergothérapie</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>Cabinet de ville des maladies infectieuses et tropicales (MIT)</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'hématologie</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'hépato-gastro-entérologie</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'oncologie</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'ophtalmologie</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'orthophonie</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'orthoptie</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'urologie</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>Cabinet de ville infirmier</t>
-  </si>
-  <si>
-    <t>226</t>
-  </si>
-  <si>
-    <t>Cabinet dentaire de chirurgie dentaire</t>
-  </si>
-  <si>
-    <t>227</t>
-  </si>
-  <si>
-    <t>Cabinet dentaire de chirurgie orale</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>Cabinet dentaire de médecine bucco-dentaire</t>
-  </si>
-  <si>
-    <t>229</t>
-  </si>
-  <si>
-    <t>Cabinet dentaire d'orthopédie dento-faciale</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>Unité hospitalière d'anatomo-cytopathologie</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de médecine du sport</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de médecine légale et expertise médicale</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de médecine physique et réadaptation (MPR)</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>Unité hospitalière d'urologie</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de médecine générale</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>Unité hospitalière d'odontologie</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>Unité hospitalière d'anesthésie</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de médecine polyvalente</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de médecine nucléaire</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de médecine du travail</t>
-  </si>
-  <si>
-    <t>241</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de chirurgie pédiatrique</t>
-  </si>
-  <si>
-    <t>242</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de chirurgie plastique, reconstructrice et esthétique</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de médecine intensive et réanimation (MIR)</t>
-  </si>
-  <si>
-    <t>244</t>
-  </si>
-  <si>
-    <t>Equipe Mobile d'Expertise en Réadaptation (EMER) neuro-locomoteur</t>
-  </si>
-  <si>
-    <t>245</t>
-  </si>
-  <si>
-    <t>Centre expert en maladies rares</t>
-  </si>
-  <si>
-    <t>246</t>
-  </si>
-  <si>
-    <t>Service d'Aide Médicale Urgente (SAMU)</t>
-  </si>
-  <si>
-    <t>247</t>
-  </si>
-  <si>
-    <t>Structure Mobile d'Urgence et de Réanimation (SMUR)</t>
-  </si>
-  <si>
-    <t>248</t>
-  </si>
-  <si>
-    <t>Unité de biologie</t>
-  </si>
-  <si>
-    <t>249</t>
-  </si>
-  <si>
-    <t>Unité de Soins de Longue Durée (USLD)</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>Centres Gratuits d'Information, de Dépistage et de Diagnostic (CeGIDD)</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
-    <t>Centre Périnatal de Proximité (CPP)</t>
-  </si>
-  <si>
-    <t>252</t>
-  </si>
-  <si>
-    <t>Equipes Mobiles de Soins Palliatifs (EMSP)</t>
-  </si>
-  <si>
-    <t>253</t>
-  </si>
-  <si>
-    <t>Equipe Ressource Régionale de Soins Palliatifs Pédiatriques (ERRSPP)</t>
-  </si>
-  <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>Unité de surveillance continue</t>
-  </si>
-  <si>
-    <t>255</t>
-  </si>
-  <si>
-    <t>Communauté Professionnelle Territoriale de Santé (CPTS)</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>Etablissement d'accueil temporaire pour adultes handicapés</t>
-  </si>
-  <si>
-    <t>257</t>
-  </si>
-  <si>
-    <t>Unité pour Personnes Handicapées Vieillissantes (UPHV)</t>
-  </si>
-  <si>
-    <t>258</t>
-  </si>
-  <si>
-    <t>Hébergement Temporaire d'urgence (dont HT-SH)</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>Point d'information local dédié aux personnes âgées</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>Relayage au domicile</t>
-  </si>
-  <si>
-    <t>261</t>
-  </si>
-  <si>
-    <t>Accueil familial pour personne âgée</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>Unité de soins intensifs spécialisés cardiologie (USIC)</t>
-  </si>
-  <si>
-    <t>263</t>
-  </si>
-  <si>
-    <t>Unité de soins intensifs spécialisés neurologie vasculaire (USINV)</t>
-  </si>
-  <si>
-    <t>264</t>
-  </si>
-  <si>
-    <t>Unité de soins intensifs spécialisés hématologie (USIH)</t>
-  </si>
-  <si>
-    <t>265</t>
-  </si>
-  <si>
-    <t>Equipe mobile d'algologie</t>
-  </si>
-  <si>
-    <t>266</t>
-  </si>
-  <si>
-    <t>Equipe mobile de gériatrie (EMG)</t>
-  </si>
-  <si>
-    <t>267</t>
-  </si>
-  <si>
-    <t>Equipe mobile d'endocrinologie, diabétologie, métabolisme et nutrition</t>
-  </si>
-  <si>
-    <t>268</t>
-  </si>
-  <si>
-    <t>Centre de lutte antituberculeuse (CLAT)</t>
-  </si>
-  <si>
-    <t>269</t>
-  </si>
-  <si>
-    <t>Centre de vaccination</t>
-  </si>
-  <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>Centre de vaccination internationale</t>
-  </si>
-  <si>
-    <t>271</t>
-  </si>
-  <si>
-    <t>Dialyse à Domicile</t>
-  </si>
-  <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>Equipe de Liaison et de Soins en Addictologie (ELSA)</t>
-  </si>
-  <si>
-    <t>273</t>
-  </si>
-  <si>
-    <t>Unité d’auto-dialyse assistée (UAD)</t>
-  </si>
-  <si>
-    <t>274</t>
-  </si>
-  <si>
-    <t>Unité de dialyse en centre lourd</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>Unité de dialyse Médicalisée (UDM)</t>
-  </si>
-  <si>
-    <t>276</t>
-  </si>
-  <si>
-    <t>Unité d’Accueil et de Soins pour personnes Sourdes et malentendantes (UASS)</t>
-  </si>
-  <si>
-    <t>277</t>
-  </si>
-  <si>
-    <t>Equipe de coordination hospitalière de tissus et/ou d’organes</t>
-  </si>
-  <si>
     <t>Unité Hospitalière de Courte Durée (UHCD)</t>
+  </si>
+  <si>
+    <t>Il s'agit d'une unité rattachée aux urgences qui accueille temporairement des patients nécessitant une surveillance, des examens complémentaires ou des soins avant une décision d’hospitalisation ou de retour à domicile. Elle assure une prise en charge continue, limitée à 24 ou 48 heures.</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>Equipe mobile de psychiatrie de l'Enfant et de l'Adolescent</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>Equipe mobile de psychiatrie adulte</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>Centre Médico-Psychologique Enfant et Adolescent (CMPEA)</t>
+  </si>
+  <si>
+    <t>Il s'agit d'un service de santé mentale destiné aux enfants et adolescents qui propose des consultations, évaluations et suivis psychologiques ou psychiatriques, en lien avec la famille et l’école.</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de psychiatrie de l’enfant et de l’adolescent (pédopsychiatrie)</t>
+  </si>
+  <si>
+    <t>Equipe mobile de psychiatrie périnatale</t>
   </si>
 </sst>
 </file>
@@ -2280,7 +2319,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D279"/>
+  <dimension ref="A1:D284"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5630,19 +5669,85 @@
       <c r="C278" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="D278" s="2"/>
+      <c r="D278" t="s" s="2">
+        <v>616</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
         <v>58</v>
       </c>
       <c r="B279" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="C279" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="D279" t="s" s="2">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B280" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="C280" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="D280" s="2"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B281" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="C281" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="D281" s="2"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B282" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="C282" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="D282" t="s" s="2">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B283" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="C283" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="D283" s="2"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B284" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="C279" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="D279" s="2"/>
+      <c r="C284" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="D284" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/www/terminologies/CodeSystem-TRE-R244-CategorieOrganisation.xlsx
+++ b/www/terminologies/CodeSystem-TRE-R244-CategorieOrganisation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="658">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20251017120000</t>
+    <t>20251222120000</t>
   </si>
   <si>
     <t>Name</t>
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T12:00:00+01:00</t>
+    <t>2025-12-22T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -118,1792 +118,1876 @@
     <t>Count</t>
   </si>
   <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Uri</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>dateValid</t>
+  </si>
+  <si>
+    <t>https://smt.esante.gouv.fr/fhir/concept-properties#dateValid</t>
+  </si>
+  <si>
+    <t>date de validité d'un code concept</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>dateMaj</t>
+  </si>
+  <si>
+    <t>https://smt.esante.gouv.fr/fhir/concept-properties#dateMaj</t>
+  </si>
+  <si>
+    <t>Date de mise à jour d'un code concept</t>
+  </si>
+  <si>
+    <t>dateFin</t>
+  </si>
+  <si>
+    <t>https://smt.esante.gouv.fr/fhir/concept-properties#dateFin</t>
+  </si>
+  <si>
+    <t>Date de fin d'exploitation d'un code concept</t>
+  </si>
+  <si>
+    <t>deprecationDate</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/concept-properties#deprecationDate</t>
+  </si>
+  <si>
+    <t>Date Concept was deprecated</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/concept-properties#status</t>
+  </si>
+  <si>
+    <t>A property that indicates the status of the concept.</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>retirementDate</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/concept-properties#retirementDate</t>
+  </si>
+  <si>
+    <t>Date Concept was retired</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Appartement thérapeutique</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Atelier thérapeutique</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Cellule d'Urgences Médico-Psychologique (CUMP)</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Centre d'Accueil Permanent (CAP)</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Centre d’Activités Thérapeutiques et de Temps de Groupe (CATTG) – ex CATTP</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Centre de crise</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>Centre de soins post-aigus (CeSPA)</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>Centre de Référence Troubles du Neuro-développement (TND) - Centre de Diagnostic et d’évaluation expert (CDE)</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>Centre Expert</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Centre Médico-Psychologique (CMP) Adulte</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Hôpital De Jour (HDJ)</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Hôpital De Nuit (HDN)</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Service d'Accueil Familial Thérapeutique</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Service Médico-Psychologique Régional (SMPR)</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Unité de Soins Intensifs Psychiatriques (USIP)</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Unité d'hospitalisation (hors HDJ)</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Unité Hospitalière Spécialement Aménagé (UHSA)</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Unité Malade Difficile (UMD)</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Unités Soins Etudes</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Unité d'urgences</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Accueil ou hébergement pour personnes âgées dépendantes, sans spécificité</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Accueil ou hébergement pour personnes âgées autonomes, sans spécificité</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Accueil pour personnes âgées dépendantes, avec spécificité UHR</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Accueil pour personnes âgées dépendantes, avec spécificité Unité de vie protégée</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Pôle d'activité de Soins Adaptés (PASA)</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Accueil ou hébergement personnes âgées dépendantes, avec spécificité PUV</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Accueil pour personnes âgées autonomes, avec spécificité MARPA</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Services Soins infirmiers à domicile (SSIAD)</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Equipe spécialisée Alzheimer (ESA)</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Service autonomie à domicile (SAD) aide</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Service d'Accompagnement à la Vie Sociale (SAVS)</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Service d'accompagnement médico-social adultes handicapés (SAMSAH)</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Service de portage de repas à domicile</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Service de Téléassistance</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Foyer restaurant</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Dispositif d'accueil familial social PA-PH</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Centre d'accueil familial spécialisé (CAFS)</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Plateforme d'accompagnement et de répit</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Foyer ou établissement d'accueil médicalisé (FAM ou EAM)</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Maison d'accueil spécialisée (MAS)</t>
+  </si>
+  <si>
+    <t>Structure d'hébergement permanent et de soins pour adulte handicapé dépendant qui n'arrive pas à réaliser seul les actes de la vie courante (se nourrir, s'habiller...), elles proposent des activités quotidiennes d'éveil ou occupationnelles (musique, relaxation, activités manuelles…) et sont structurées autour d'unités de vie comprenant 8 à 10 chambres individuelles. Elles accueillent des personnes un peu plus dépendantes que la population hébergée en foyer d'accueil médicalisé (Fam)</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>EANM dont foyer de vie et foyer d'hébergement</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Foyer d'hébergement (Etablissement d'accueil non médicalisé)</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Unité d'aide par le travail (ESAT)</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Etablissements et Service de Réadaptation Professionnelle (ESRP)</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Unités évaluation réentraînement et orientation sociale et professionnel (UEROS)</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Établissement et Service de Préorientation (ESPO)</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Plateforme Emploi Accompagné (PEA)</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Institut médico-éducatif (IME)</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Institut d'éducation motrice (IEM)</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Institut thérapeutique éducatif et pédagogique (ITEP)</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Etablissement pour enfant ou ado polyhandicapé (EEAP)</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Institut déficient visuel</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Institut déficient auditif</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Institut déficient Visuel et Auditif</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Unité d'enseignement interne</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>Unité d'enseignement externalisée</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>Service d'Education Spécialisée de Soins à Domicile (SESSAD)</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>Service d'Accompagnement Familial et d'Education Précoce (SAFEP)</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>Services de Soutien à l'Education Familiale et à la Scolarisation (SSEFIS)</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Serv Aide à l'Acquisition de l'Autono et à l'Intégration Sco (S3AIS)</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>Centre d'action médico-sociale précoce (CAMSP)</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>Centre médico-psycho-pédagogique (CMPP)</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>Jardin d'enfants spécialisé</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>Bureau d'Aide Psychologique Universitaire (B.A.P.U.)</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>Pôle de compétences et de prestations externalisées (PCPE)</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>Equipe Relai Handicap rare</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>Lieu de vie et d'accueil (hors ESMS)</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>Unité d'hospitalisation fermée</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Consultation externe en établissement de santé</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>Unité d'intervention extra-hospitalière</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Equipe de liaison et de soins (intra-hospitalière)</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>Guichet d'accueil, écoute, conseil, orientation</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>Gestion de cas MAIA</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>Logement inclusif</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Services Soins infirmiers à domicile renforcé (SSIAD renforcé)</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Unité d'évaluation et de régulation des admissions en psychiatrie</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>Equipe Mobile Psychiatrie et Précarité (EMPP)</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>Equipe Mobile Géronto-Psychiatrie (EMGP)</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>Equipe Mobile Ambulatoire de Réadaptation Spécialisé (EARS)</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Centre de Soins, d'Accompagnement et de Prévention en Addictologie (CSAPA)</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>CAARUD</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>Pharmacie à Usage Intérieur (PUI)</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>Chambre mortuaire</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Plateforme de Coordination et d'Orientation (PCO)</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>Equipe Mobile Autisme</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>Consultation Jeune Consommateur (CJC)</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>Dispositif VigilanS</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>Dispositif expérimental</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>Centre de santé sexuelle</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>Equipe mobile de prévention du risque infectieux</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Equipe opérationnelle d'hygiène (EOH)</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>Soins non programmés de ville</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Lits halte soins santé (LHSS)</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Appartement de coordination thérapeutique (ACT)</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>Lits d'accueil médicalisés (L.A.M.)</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>Etablissement d'accueil non médicalisé (EANM) - foyer d'hébergement</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>Etablissement d'accueil non médicalisé (EANM) - foyer de vie</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>Espaces de vie affective, relationnelle et sexuelle (EVARS)</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>Maison de santé pluriprofessionnelle (MSP)</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) polyvalent</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) gériatrie</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) locomoteur</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) système nerveux</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) cardio-vasculaire</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) pneumologie</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) sys dig, endocrino, diabéto, nutrition</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) brûlés</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) conduites addictives</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) pédiatriques (enfants et adolescents)</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) pédiatriques (jeunes enfants, enf, ado)</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) oncologie</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Soins Médicaux et de Réadaptation (SMR) oncologie et hématologie</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>Centre de Réhabilitation Psychosociale</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>Centre Ressource pour les Interv. auprès des Aut. de Violences Sex. (CRIAVS)</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>Equipe Spécialisée de Soins Infirmiers Précarité (ESSIP)</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>Unité de chirurgie oncologique</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>Unité de radiothérapie</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>Unité de traitements médicamenteux systémiques du cancer</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>Unité mère-enfant</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>Centre de recours Troubles du Comportement Alimentaire (TCA)</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>Unité de réanimation</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>Unité de soins intensifs polyvalents (USIP) contiguë</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Unité de soins intensifs polyvalents (USIP) dérogatoire</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>Unité de soins intensifs (USI) de spécialité (hors USIC, USINV, USIH)</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>Centre de protection maternelle et infantile (PMI)</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>Structure Douleur Chronique (SDC)</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>Centre régional du psychotraumatisme (CRP)</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>Unité d'hospitalisation à domicile socle</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>Unité d'hospitalisation à domicile ante et post-partum</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>Unité d'hospitalisation à domicile réadaptation</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>Unité d'hospitalisation à domicile enfants de moins de trois ans</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>Service autonomie à domicile (SAD) aide et soins</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>Maison des adolescents (MDA)</t>
+  </si>
+  <si>
+    <t>Structures ayant pour missions : l'accueil, l'information, la prévention et la promotion de la santé, l'accompagnement et la prise en charge multidisciplinaire (médecin, psychologue, juriste, infirmière ou infirmier, éducateur ou éducatrice, etc.) des adolescents et jeunes adultes, de leurs familles et des professionnels qui les entourent, pour répondre aux questions relatives à l'adolescence (sexualité, puberté, consommation de toxiques, santé mentale, etc.)</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>Points Accueil Ecoute Jeunes (PAEJ)</t>
+  </si>
+  <si>
+    <t>Petites structures  complémentaires des maisons des adolescents (MDA), qui  offrent une écoute, un accueil et une orientation aux jeunes âgés de 12 à 25 ans, ainsi qu'aux parents,  de façon inconditionnelle, gratuite et confidentielle, sans rendez-vous,  souhaitant recevoir un appui, un conseil, une orientation, des lors qu'ils rencontrent une difficulté concernant la santé de façon la plus large : mal être, souffrance, dévalorisation, échec, attitude conflictuelle, difficultés scolaires ou relationnelles, conduites de rupture, violentes ou dépendantes, décrochage social, scolaire.</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>Centre de ressources territorial (CRT)</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>Maison sport-santé</t>
+  </si>
+  <si>
+    <t>Lieu d'accompagnement et d'orientation  pour permettre à toute personne de pratiquer, développer ou reprendre  une activité physique ou sportive bénéfique pour sa santé</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>Unité de soins non programmés en établissement de santé</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>Unité de soins intensifs polyvalents (USIP) non contiguë</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>Equipe Mobile d'Appui à la Scolarisation (EMAS)</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>Espace Santé Jeune (ESJ)</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>Equipes Mobiles Santé Précarité (EMSP)</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>Communauté 360</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>Equipe Mobile de Psychiatrie de la Personne Âgée</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>Unité hospitalière d'addictologie</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>Unité de prise en charge des brûlés</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Unité de sevrage complexe</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>Unité hospitalière d'allergologie</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de cardiologie</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de chirurgie orthopédique et traumatologique</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de chirurgie thoracique et cardiovasculaire</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de chirurgie vasculaire</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de chirurgie viscérale et digestive</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de dermatologie</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de génétique médicale</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de gériatrie</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de gynécologie</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de médecine vasculaire</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de néphrologie</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de neurochirurgie</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de neurologie</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de pédiatrie</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de pneumologie</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>Unité hospitalière d'imagerie médicale</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de rhumatologie</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de stomatologie, chirurgie orale et maxillo faciale</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>Unité hospitalière d'endocrinologie, diabétologie et nutrition</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>Unité hospitalière des maladies infectieuses et tropicales</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>Unité hospitalière d'hématologie</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>Unité hospitalière d'hépato-gastro-entérologie (HGE)</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>Unité hospitalière d'oncologie</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>Unité hospitalière d'ophtalmologie</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>Unité hospitalière oto-rhino-laryngologie (ORL)</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de psychiatrie de l’adulte</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>Unités de soins palliatifs</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de médecine interne</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>Dispositif de consultation dédié pour les personnes en situation de handicap</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>Dispositif d'Appui à la Coordination (DAC)</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'oto-rhino-laryngologie (ORL)</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'allergologie</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'anatomo-cytopathologie</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'anesthésie-réanimation</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de cardiologie</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de chirurgie orthopédique et traumatologique</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de chirurgie pédiatrique</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de chirurgie plastique</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de chirurgie thoracique et cardiovasculaire</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de chirurgie vasculaire</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de chirurgie viscérale et digestive</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de dermatologie</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de diététique</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de génétique médicale</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de gériatrie</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de gynécologie et/ou obstétrique</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de kinésithérapie</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de médecine générale</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de médecine interne</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de médecine légale et expertise médicale</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de médecine nucléaire</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de médecine physique et réadaptation (MPR)</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de médecine vasculaire</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de néphrologie</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de neurochirurgie</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de neurologie</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de pédiatrie</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de pédicure-podologie</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de pneumologie</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de psychiatrie</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de psychologie</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de psychomotricité</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'imagerie médicale</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de rhumatologie</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de sages-femmes</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de stomatologie, chirurgie orale et maxillo faciale</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'endocrinologie, diabétologie et nutrition</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'ergothérapie</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>Cabinet de ville des maladies infectieuses et tropicales (MIT)</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'hématologie</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'hépato-gastro-entérologie</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'oncologie</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'ophtalmologie</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'orthophonie</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'orthoptie</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'urologie</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>Cabinet de ville infirmier</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>Cabinet dentaire de chirurgie dentaire</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>Cabinet dentaire de chirurgie orale</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>Cabinet dentaire de médecine bucco-dentaire</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>Cabinet dentaire d'orthopédie dento-faciale</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>Unité hospitalière d'anatomo-cytopathologie</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de médecine du sport</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de médecine légale et expertise médicale</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de médecine physique et réadaptation (MPR)</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>Unité hospitalière d'urologie</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de médecine générale</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>Unité hospitalière d'odontologie</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>Unité hospitalière d'anesthésie</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de médecine polyvalente</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de médecine nucléaire</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de médecine du travail</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de chirurgie pédiatrique</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de chirurgie plastique, reconstructrice et esthétique</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de médecine intensive et réanimation (MIR)</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>Equipe Mobile d'Expertise en Réadaptation (EMER) neuro-locomoteur</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>Centre expert en maladies rares</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>Service d'Aide Médicale Urgente (SAMU)</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>Structure Mobile d'Urgence et de Réanimation (SMUR)</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>Unité de biologie</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>Unité de Soins de Longue Durée (USLD)</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>Centres Gratuits d'Information, de Dépistage et de Diagnostic (CeGIDD)</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>Centre Périnatal de Proximité (CPP)</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>Equipes Mobiles de Soins Palliatifs (EMSP)</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>Equipe Ressource Régionale de Soins Palliatifs Pédiatriques (ERRSPP)</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>Unité de surveillance continue</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>Communauté Professionnelle Territoriale de Santé (CPTS)</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>Etablissement d'accueil temporaire pour adultes handicapés</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>Unité pour Personnes Handicapées Vieillissantes (UPHV - UPHA)</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>Hébergement Temporaire d'urgence (dont HT-SH)</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>Point d'information local dédié aux personnes âgées</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>Relayage au domicile</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>Accueil familial pour personne âgée</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>Unité de soins intensifs spécialisés cardiologie (USIC)</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>Unité de soins intensifs spécialisés neurologie vasculaire (USINV)</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>Unité de soins intensifs spécialisés hématologie (USIH)</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>Equipe mobile d'algologie</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>Equipe mobile de gériatrie (EMG)</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>Equipe mobile d'endocrinologie, diabétologie, métabolisme et nutrition</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>Centre de lutte antituberculeuse (CLAT)</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>Centre de vaccination</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>Centre de vaccination internationale</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>Dialyse à Domicile</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>Equipe de Liaison et de Soins en Addictologie (ELSA)</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>Unité d’auto-dialyse assistée (UAD)</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>Unité de dialyse en centre lourd</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>Unité de dialyse Médicalisée (UDM)</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>Unité d’Accueil et de Soins pour personnes Sourdes et malentendantes (UASS)</t>
+  </si>
+  <si>
+    <t>Une Unité d'Accueil et de Soins pour patients Sourds (UASS) est une unité dédiée à l’accueil et à la prise en charge des personnes sourdes et malentendantes. Elle garantit un accès équitable aux soins grâce à des équipes formées, bilingues en français et en langue des signes française (LSF), capables d’adapter la communication pour accompagner au mieux les patients tout au long de leur parcours de soins. L'unité a pour objectif d'accueillir en consultation les patients sourds, malentendants, de les accompagner dans leur démarche de soins grâce à des interprètes et à des intermédiateurs. Elle propose sur rendez-vous des consultations de médecine générale (systématique), de psychologues (parfois) et des temps avec des assistantes sociales. Elle propose également l’accessibilité en langue des signes à toutes les activités (consultations de spécialistes, urgence, etc..) de l’établissement. Certaines unités sont spécifiques à la prise en charge en psychiatrie.</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>Equipe de coordination hospitalière de tissus et/ou d’organes</t>
+  </si>
+  <si>
+    <t>Il s'agit d'une équipe hospitalière pluridisciplinaire chargée d’identifier les donneurs potentiels d’organes et de tissus, d’organiser et de coordonner les prélèvements, en garantissant le respect des règles légales, éthiques et de sécurité sanitaire, ainsi que l’accompagnement des proches. Elle assure la liaison entre les services hospitaliers, les équipes de greffe et l’Agence de la biomédecine pour la traçabilité et la qualité du don.</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>Unité Hospitalière de Courte Durée (UHCD)</t>
+  </si>
+  <si>
+    <t>Il s'agit d'une unité rattachée aux urgences qui accueille temporairement des patients nécessitant une surveillance, des examens complémentaires ou des soins avant une décision d’hospitalisation ou de retour à domicile. Elle assure une prise en charge continue, limitée à 24 ou 48 heures.</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>Equipe mobile de psychiatrie de l'Enfant et de l'Adolescent</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>Equipe mobile de psychiatrie adulte</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>Centre Médico-Psychologique Enfant et Adolescent (CMPEA)</t>
+  </si>
+  <si>
+    <t>Il s'agit d'un service de santé mentale destiné aux enfants et adolescents qui propose des consultations, évaluations et suivis psychologiques ou psychiatriques, en lien avec la famille et l’école.</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de psychiatrie de l’enfant et de l’adolescent (pédopsychiatrie)</t>
+  </si>
+  <si>
     <t>283</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Uri</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>dateValid</t>
-  </si>
-  <si>
-    <t>date de validité d'un code concept</t>
-  </si>
-  <si>
-    <t>dateTime</t>
-  </si>
-  <si>
-    <t>dateMaj</t>
-  </si>
-  <si>
-    <t>Date de mise à jour d'un code concept</t>
-  </si>
-  <si>
-    <t>dateFin</t>
-  </si>
-  <si>
-    <t>Date de fin d'exploitation d'un code concept</t>
-  </si>
-  <si>
-    <t>deprecationDate</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/concept-properties#deprecationDate</t>
-  </si>
-  <si>
-    <t>Date Concept was deprecated</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/concept-properties#status</t>
-  </si>
-  <si>
-    <t>A property that indicates the status of the concept.</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>retirementDate</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/concept-properties#retirementDate</t>
-  </si>
-  <si>
-    <t>Date Concept was retired</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>Appartement thérapeutique</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Atelier thérapeutique</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Cellule d'Urgences Médico-Psychologique (CUMP)</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>Centre d'Accueil Permanent (CAP)</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>Centre d’Activités Thérapeutiques et de Temps de Groupe (CATTG) – ex CATTP</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Centre de crise</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>Centre de post-cure</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>Centre de Ressources Autisme (CRA)</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>Centre Expert</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Centre Médico-Psychologique (CMP) Adulte</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Hôpital De Jour (HDJ)</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Hôpital De Nuit (HDN)</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Service d'Accueil Familial Thérapeutique</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Service Médico-Psychologique Régional (SMPR)</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Unité de Soins Intensifs Psychiatriques (USIP)</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Unité d'hospitalisation (hors HDJ)</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Unité Hospitalière Spécialement Aménagé (UHSA)</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Unité Malade Difficile (UMD)</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Unités Soins Etudes</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Unité d'urgences</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Accueil ou hébergement pour personnes âgées dépendantes, sans spécificité</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Accueil ou hébergement pour personnes âgées autonomes, sans spécificité</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Accueil pour personnes âgées dépendantes, avec spécificité UHR</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Accueil pour personnes âgées dépendantes, avec spécificité Unité de vie protégée</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Pôle d'activité de Soins Adaptés (PASA)</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Accueil ou hébergement personnes âgées dépendantes, avec spécificité PUV</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Accueil pour personnes âgées autonomes, avec spécificité MARPA</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Services Soins infirmiers à domicile (SSIAD)</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Equipe spécialisée Alzheimer (ESA)</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>Service autonomie à domicile (SAD) aide</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>Service d'Accompagnement à la Vie Sociale (SAVS)</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Service d'accompagnement médico-social adultes handicapés (SAMSAH)</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>Service de portage de repas à domicile</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>Service de Téléassistance</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>Foyer restaurant</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>Dispositif d'accueil familial</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>Centre d'accueil familial spécialisé (CAFS)</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>Plateforme d'accompagnement et de répit</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>Foyer ou établissement d'accueil médicalisé (FAM ou EAM)</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>Maison d'accueil spécialisée (MAS)</t>
-  </si>
-  <si>
-    <t>Structure d'hébergement permanent et de soins pour adulte handicapé dépendant qui n'arrive pas à réaliser seul les actes de la vie courante (se nourrir, s'habiller...), elles proposent des activités quotidiennes d'éveil ou occupationnelles (musique, relaxation, activités manuelles…) et sont structurées autour d'unités de vie comprenant 8 à 10 chambres individuelles. Elles accueillent des personnes un peu plus dépendantes que la population hébergée en foyer d'accueil médicalisé (Fam)</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>EANM dont foyer de vie et foyer d'hébergement</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Foyer d'hébergement (Etablissement d'accueil non médicalisé)</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>Unité d'aide par le travail (ESAT)</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Etablissements et Service de Réadaptation Professionnelle (ESRP)</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>Unités évaluation réentraînement et orientation sociale et professionnel (UEROS)</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>Établissement et Service de Préorientation (ESPO)</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>Plateforme Emploi Accompagné (PEA)</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>Institut médico-éducatif (IME)</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>Institut d'éducation motrice (IEM)</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Institut thérapeutique éducatif et pédagogique (ITEP)</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>Etablissement pour enfant ou ado polyhandicapé (EEAP)</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Institut déficient visuel</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Institut déficient auditif</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>Institut déficient Visuel et Auditif</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>Unité d'enseignement interne</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>Unité d'enseignement externalisée</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>Service d'Education Spécialisée de Soins à Domicile (SESSAD)</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>Service d'Accompagnement Familial et d'Education Précoce (SAFEP)</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>Services de Soutien à l'Education Familiale et à la Scolarisation (SSEFIS)</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>Serv Aide à l'Acquisition de l'Autono et à l'Intégration Sco (S3AIS)</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>Centre d'action médico-sociale précoce (CAMSP)</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>Centre médico-psycho-pédagogique (CMPP)</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>Jardin d'enfants spécialisé</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>Bureau d'Aide Psychologique Universitaire (B.A.P.U.)</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>Pôle de compétences et de prestations externalisées (PCPE)</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>Equipe Relai Handicap rare</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>Lieu de vie et d'accueil (hors ESMS)</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>Unité d'hospitalisation fermée</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>Consultation externe en établissement de santé</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>Unité d'intervention extra-hospitalière</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>Equipe de liaison et de soins (intra-hospitalière)</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>Guichet d'accueil, écoute, conseil, orientation</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>Gestion de cas MAIA</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>Logement inclusif</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Services Soins infirmiers à domicile renforcé (SSIAD renforcé)</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Unité d'évaluation et de régulation des admissions en psychiatrie</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>Equipe Mobile Psychiatrie et Précarité (EMPP)</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>Equipe Mobile Géronto-Psychiatrie (EMGP)</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>Equipe Mobile Ambulatoire de Réadaptation Spécialisé (EARS)</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>Centre de Soins, d'Accompagnement et de Prévention en Addictologie (CSAPA)</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>CAARUD</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>Pharmacie à Usage Intérieur (PUI)</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>Chambre mortuaire</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Plateforme de Coordination et d'Orientation (PCO)</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>Equipe Mobile Autisme</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>Consultation Jeune Consommateur (CJC)</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>Dispositif VigilanS</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>Dispositif expérimental</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>Centre de santé sexuelle</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>Equipe mobile de prévention du risque infectieux</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>Equipe opérationnelle d'hygiène (EOH)</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>Soins non programmés de ville</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Lits halte soins santé (LHSS)</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>Appartement de coordination thérapeutique (ACT)</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>Lits d'accueil médicalisés (L.A.M.)</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>Etablissement d'accueil non médicalisé (EANM) - foyer d'hébergement</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>Etablissement d'accueil non médicalisé (EANM) - foyer de vie</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>Espaces de vie affective, relationnelle et sexuelle (EVARS)</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>Maison de santé pluriprofessionnelle (MSP)</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) polyvalent</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) gériatrie</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) locomoteur</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) système nerveux</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) cardio-vasculaire</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) pneumologie</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) sys dig, endocrino, diabéto, nutrition</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) brûlés</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) conduites addictives</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) pédiatriques (enfants et adolescents)</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) pédiatriques (jeunes enfants, enf, ado)</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) oncologie</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>Soins Médicaux et de Réadaptation (SMR) oncologie et hématologie</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>Centre de Réhabilitation Psychosociale</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>Centre Ressource pour les Interv. auprès des Aut. de Violences Sex. (CRIAVS)</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>Equipe Spécialisée de Soins Infirmiers Précarité (ESSIP)</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>Unité de chirurgie oncologique</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>Unité de radiothérapie</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>Unité de traitements médicamenteux systémiques du cancer</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>Unité mère-enfant</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>Centre de recours Troubles du Comportement Alimentaire (TCA)</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>Unité de réanimation</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>Unité de soins intensifs polyvalents (USIP) contiguë</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>Unité de soins intensifs polyvalents (USIP) dérogatoire</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>Unité de soins intensifs (USI) de spécialité (hors USIC, USINV, USIH)</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>Centre de protection maternelle et infantile (PMI)</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>Structure Douleur Chronique (SDC)</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>Centre régional du psychotraumatisme (CRP)</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>Unité d'hospitalisation à domicile socle</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>Unité d'hospitalisation à domicile ante et post-partum</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>Unité d'hospitalisation à domicile réadaptation</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>Unité d'hospitalisation à domicile enfants de moins de trois ans</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>Service autonomie à domicile (SAD) aide et soins</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>Maison des adolescents (MDA)</t>
-  </si>
-  <si>
-    <t>Structures ayant pour missions : l'accueil, l'information, la prévention et la promotion de la santé, l'accompagnement et la prise en charge multidisciplinaire (médecin, psychologue, juriste, infirmière ou infirmier, éducateur ou éducatrice, etc.) des adolescents et jeunes adultes, de leurs familles et des professionnels qui les entourent, pour répondre aux questions relatives à l'adolescence (sexualité, puberté, consommation de toxiques, santé mentale, etc.)</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>Points Accueil Ecoute Jeunes (PAEJ)</t>
-  </si>
-  <si>
-    <t>Petites structures  complémentaires des maisons des adolescents (MDA), qui  offrent une écoute, un accueil et une orientation aux jeunes âgés de 12 à 25 ans, ainsi qu'aux parents,  de façon inconditionnelle, gratuite et confidentielle, sans rendez-vous,  souhaitant recevoir un appui, un conseil, une orientation, des lors qu'ils rencontrent une difficulté concernant la santé de façon la plus large : mal être, souffrance, dévalorisation, échec, attitude conflictuelle, difficultés scolaires ou relationnelles, conduites de rupture, violentes ou dépendantes, décrochage social, scolaire.</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>Centre de ressources territorial (CRT)</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>Maison sport-santé</t>
-  </si>
-  <si>
-    <t>Lieu d'accompagnement et d'orientation  pour permettre à toute personne de pratiquer, développer ou reprendre  une activité physique ou sportive bénéfique pour sa santé</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>Unité de soins non programmés en établissement de santé</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>Unité de soins intensifs polyvalents (USIP) non contiguë</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>Equipe Mobile d'Appui à la Scolarisation (EMAS)</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>Espace Santé Jeune (ESJ)</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>Equipes Mobiles Santé Précarité (EMSP)</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>Communauté 360</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>Equipe Mobile de Psychiatrie de la Personne Âgée</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>Unité d'addictologie</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>Unité de prise en charge des brûlés</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Unité de sevrage complexe</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>Unité hospitalière d'allergologie</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de cardiologie</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de chirurgie orthopédique et traumatologique</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de chirurgie thoracique et cardiovasculaire</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de chirurgie vasculaire</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de chirurgie viscérale et digestive</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de dermatologie</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de génétique médicale</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de gériatrie</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de gynécologie et/ou obstétrique</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de médecine vasculaire</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de néphrologie</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de neurochirurgie</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de neurologie</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de pédiatrie</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de pneumologie</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de radiologie</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de rhumatologie</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de stomatologie, chirurgie orale et maxillo faciale</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>Unité hospitalière d'endocrinologie, diabétologie et nutrition</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>Unité hospitalière des maladies infectieuses et tropicales</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>Unité hospitalière d'hématologie</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>Unité hospitalière d'hépato-gastro-entérologie (HGE)</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>Unité hospitalière d'oncologie</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>Unité hospitalière d'ophtalmologie</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>Unité hospitalière oto-rhino-laryngologie (ORL)</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de psychiatrie de l’adulte</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>Unités de soins palliatifs</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de médecine interne</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>Dispositif de consultation dédié pour les personnes en situation de handicap</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>Dispositif d'Appui à la Coordination (DAC)</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'oto-rhino-laryngologie (ORL)</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'allergologie</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'anatomo-cytopathologie</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'anesthésie-réanimation</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de cardiologie</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de chirurgie orthopédique et traumatologique</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de chirurgie pédiatrique</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de chirurgie plastique</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de chirurgie thoracique et cardiovasculaire</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de chirurgie vasculaire</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de chirurgie viscérale et digestive</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de dermatologie</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de diététique</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de génétique médicale</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de gériatrie</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de gynécologie et/ou obstétrique</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de kinésithérapie</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de médecine générale</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de médecine interne</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de médecine légale et expertise médicale</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de médecine nucléaire</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de médecine physique et réadaptation (MPR)</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de médecine vasculaire</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de néphrologie</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de neurochirurgie</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de neurologie</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de pédiatrie</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de pédicure-podologie</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de pneumologie</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de psychiatrie</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de psychologie</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de psychomotricité</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de radiologie</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de rhumatologie</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de sages-femmes</t>
-  </si>
-  <si>
-    <t>214</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de stomatologie, chirurgie orale et maxillo faciale</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'endocrinologie, diabétologie et nutrition</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'ergothérapie</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>Cabinet de ville des maladies infectieuses et tropicales (MIT)</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'hématologie</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'hépato-gastro-entérologie</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'oncologie</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'ophtalmologie</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'orthophonie</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'orthoptie</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>Cabinet de ville d'urologie</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>Cabinet de ville infirmier</t>
-  </si>
-  <si>
-    <t>226</t>
-  </si>
-  <si>
-    <t>Cabinet dentaire de chirurgie dentaire</t>
-  </si>
-  <si>
-    <t>227</t>
-  </si>
-  <si>
-    <t>Cabinet dentaire de chirurgie orale</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>Cabinet dentaire de médecine bucco-dentaire</t>
-  </si>
-  <si>
-    <t>229</t>
-  </si>
-  <si>
-    <t>Cabinet dentaire d'orthopédie dento-faciale</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>Unité hospitalière d'anatomo-cytopathologie</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de médecine du sport</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de médecine légale et expertise médicale</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de médecine physique et réadaptation (MPR)</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>Unité hospitalière d'urologie</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de médecine générale</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>Unité hospitalière d'odontologie</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>Unité hospitalière d'anesthésie</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de médecine polyvalente</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de médecine nucléaire</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de médecine du travail</t>
-  </si>
-  <si>
-    <t>241</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de chirurgie pédiatrique</t>
-  </si>
-  <si>
-    <t>242</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de chirurgie plastique, reconstructrice et esthétique</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>Cabinet de ville de médecine intensive et réanimation (MIR)</t>
-  </si>
-  <si>
-    <t>244</t>
-  </si>
-  <si>
-    <t>Equipe Mobile d'Expertise en Réadaptation (EMER) neuro-locomoteur</t>
-  </si>
-  <si>
-    <t>245</t>
-  </si>
-  <si>
-    <t>Centre expert en maladies rares</t>
-  </si>
-  <si>
-    <t>246</t>
-  </si>
-  <si>
-    <t>Service d'Aide Médicale Urgente (SAMU)</t>
-  </si>
-  <si>
-    <t>247</t>
-  </si>
-  <si>
-    <t>Structure Mobile d'Urgence et de Réanimation (SMUR)</t>
-  </si>
-  <si>
-    <t>248</t>
-  </si>
-  <si>
-    <t>Unité de biologie</t>
-  </si>
-  <si>
-    <t>249</t>
-  </si>
-  <si>
-    <t>Unité de Soins de Longue Durée (USLD)</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>Centres Gratuits d'Information, de Dépistage et de Diagnostic (CeGIDD)</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
-    <t>Centre Périnatal de Proximité (CPP)</t>
-  </si>
-  <si>
-    <t>252</t>
-  </si>
-  <si>
-    <t>Equipes Mobiles de Soins Palliatifs (EMSP)</t>
-  </si>
-  <si>
-    <t>253</t>
-  </si>
-  <si>
-    <t>Equipe Ressource Régionale de Soins Palliatifs Pédiatriques (ERRSPP)</t>
-  </si>
-  <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>Unité de surveillance continue</t>
-  </si>
-  <si>
-    <t>255</t>
-  </si>
-  <si>
-    <t>Communauté Professionnelle Territoriale de Santé (CPTS)</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>Etablissement d'accueil temporaire pour adultes handicapés</t>
-  </si>
-  <si>
-    <t>257</t>
-  </si>
-  <si>
-    <t>Unité pour Personnes Handicapées Vieillissantes (UPHV - UPHA)</t>
-  </si>
-  <si>
-    <t>258</t>
-  </si>
-  <si>
-    <t>Hébergement Temporaire d'urgence (dont HT-SH)</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>Point d'information local dédié aux personnes âgées</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>Relayage au domicile</t>
-  </si>
-  <si>
-    <t>261</t>
-  </si>
-  <si>
-    <t>Accueil familial pour personne âgée</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>Unité de soins intensifs spécialisés cardiologie (USIC)</t>
-  </si>
-  <si>
-    <t>263</t>
-  </si>
-  <si>
-    <t>Unité de soins intensifs spécialisés neurologie vasculaire (USINV)</t>
-  </si>
-  <si>
-    <t>264</t>
-  </si>
-  <si>
-    <t>Unité de soins intensifs spécialisés hématologie (USIH)</t>
-  </si>
-  <si>
-    <t>265</t>
-  </si>
-  <si>
-    <t>Equipe mobile d'algologie</t>
-  </si>
-  <si>
-    <t>266</t>
-  </si>
-  <si>
-    <t>Equipe mobile de gériatrie (EMG)</t>
-  </si>
-  <si>
-    <t>267</t>
-  </si>
-  <si>
-    <t>Equipe mobile d'endocrinologie, diabétologie, métabolisme et nutrition</t>
-  </si>
-  <si>
-    <t>268</t>
-  </si>
-  <si>
-    <t>Centre de lutte antituberculeuse (CLAT)</t>
-  </si>
-  <si>
-    <t>269</t>
-  </si>
-  <si>
-    <t>Centre de vaccination</t>
-  </si>
-  <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>Centre de vaccination internationale</t>
-  </si>
-  <si>
-    <t>271</t>
-  </si>
-  <si>
-    <t>Dialyse à Domicile</t>
-  </si>
-  <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>Equipe de Liaison et de Soins en Addictologie (ELSA)</t>
-  </si>
-  <si>
-    <t>273</t>
-  </si>
-  <si>
-    <t>Unité d’auto-dialyse assistée (UAD)</t>
-  </si>
-  <si>
-    <t>274</t>
-  </si>
-  <si>
-    <t>Unité de dialyse en centre lourd</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>Unité de dialyse Médicalisée (UDM)</t>
-  </si>
-  <si>
-    <t>276</t>
-  </si>
-  <si>
-    <t>Unité d’Accueil et de Soins pour personnes Sourdes et malentendantes (UASS)</t>
-  </si>
-  <si>
-    <t>277</t>
-  </si>
-  <si>
-    <t>Equipe de coordination hospitalière de tissus et/ou d’organes</t>
-  </si>
-  <si>
-    <t>Il s'agit d'une équipe hospitalière pluridisciplinaire chargée d’identifier les donneurs potentiels d’organes et de tissus, d’organiser et de coordonner les prélèvements, en garantissant le respect des règles légales, éthiques et de sécurité sanitaire, ainsi que l’accompagnement des proches. Elle assure la liaison entre les services hospitaliers, les équipes de greffe et l’Agence de la biomédecine pour la traçabilité et la qualité du don.</t>
-  </si>
-  <si>
-    <t>278</t>
-  </si>
-  <si>
-    <t>Unité Hospitalière de Courte Durée (UHCD)</t>
-  </si>
-  <si>
-    <t>Il s'agit d'une unité rattachée aux urgences qui accueille temporairement des patients nécessitant une surveillance, des examens complémentaires ou des soins avant une décision d’hospitalisation ou de retour à domicile. Elle assure une prise en charge continue, limitée à 24 ou 48 heures.</t>
-  </si>
-  <si>
-    <t>279</t>
-  </si>
-  <si>
-    <t>Equipe mobile de psychiatrie de l'Enfant et de l'Adolescent</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>Equipe mobile de psychiatrie adulte</t>
-  </si>
-  <si>
-    <t>281</t>
-  </si>
-  <si>
-    <t>Centre Médico-Psychologique Enfant et Adolescent (CMPEA)</t>
-  </si>
-  <si>
-    <t>Il s'agit d'un service de santé mentale destiné aux enfants et adolescents qui propose des consultations, évaluations et suivis psychologiques ou psychiatriques, en lien avec la famille et l’école.</t>
-  </si>
-  <si>
-    <t>282</t>
-  </si>
-  <si>
-    <t>Unité hospitalière de psychiatrie de l’enfant et de l’adolescent (pédopsychiatrie)</t>
-  </si>
-  <si>
     <t>Equipe mobile de psychiatrie périnatale</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>Equipe Spécialisée de Prévention et de Réadaptation à Domicile (ESPRAD)</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>Centre Anti-Poison et de Toxico-Vigilance (CAPTV)</t>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de Soins Intensifs Néonatals (USIN)</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de réanimation néonatale</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>Unité hospitalière « kangourou » ou « koala »</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de néonatalogie</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de maternité</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>Halte Soins Addiction (HSA)</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>Unité Hospitalière Sécurisée Interrégionale (UHSI)</t>
+  </si>
+  <si>
+    <t>293</t>
+  </si>
+  <si>
+    <t>Unité hospitalière dédiée grossesse pathologique (GHR)</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de soins externes</t>
+  </si>
+  <si>
+    <t>Permanence d'Accès aux Soins de Santé (PASS)</t>
   </si>
 </sst>
 </file>
@@ -2238,78 +2322,84 @@
       <c r="A2" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="C2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s" s="2">
         <v>41</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>46</v>
+      </c>
       <c r="C4" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2319,7 +2409,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D284"/>
+  <dimension ref="A1:D296"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2327,3427 +2417,3573 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>35</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D70" s="2"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D74" s="2"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D75" s="2"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D76" s="2"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D77" s="2"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D78" s="2"/>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D79" s="2"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D80" s="2"/>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D81" s="2"/>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D82" s="2"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D83" s="2"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D84" s="2"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D85" s="2"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D86" s="2"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D87" s="2"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D88" s="2"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D89" s="2"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D90" s="2"/>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D91" s="2"/>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D92" s="2"/>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D93" s="2"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D94" s="2"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D95" s="2"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D96" s="2"/>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D97" s="2"/>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D98" s="2"/>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D99" s="2"/>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D100" s="2"/>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D101" s="2"/>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D102" s="2"/>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D103" s="2"/>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D104" s="2"/>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D105" s="2"/>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D106" s="2"/>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D107" s="2"/>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D108" s="2"/>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D109" s="2"/>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D110" s="2"/>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D111" s="2"/>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D112" s="2"/>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D113" s="2"/>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D114" s="2"/>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D115" s="2"/>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D116" s="2"/>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D117" s="2"/>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D118" s="2"/>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D119" s="2"/>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D120" s="2"/>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D121" s="2"/>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D122" s="2"/>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D123" s="2"/>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D124" s="2"/>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D125" s="2"/>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D126" s="2"/>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D127" s="2"/>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D128" s="2"/>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D129" s="2"/>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D130" s="2"/>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D131" s="2"/>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D132" s="2"/>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D133" s="2"/>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D134" s="2"/>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D135" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D136" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D137" s="2"/>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D138" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D139" s="2"/>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D140" s="2"/>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D141" s="2"/>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D142" s="2"/>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D143" s="2"/>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D144" s="2"/>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D145" s="2"/>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D146" s="2"/>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D147" s="2"/>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D148" s="2"/>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D149" s="2"/>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D150" s="2"/>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D151" s="2"/>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D152" s="2"/>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D153" s="2"/>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D154" s="2"/>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D155" s="2"/>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D156" s="2"/>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D157" s="2"/>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D158" s="2"/>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D159" s="2"/>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D160" s="2"/>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D161" s="2"/>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D162" s="2"/>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D163" s="2"/>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D164" s="2"/>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D165" s="2"/>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D166" s="2"/>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D167" s="2"/>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D168" s="2"/>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D169" s="2"/>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D170" s="2"/>
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D171" s="2"/>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D172" s="2"/>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D173" s="2"/>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D174" s="2"/>
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D175" s="2"/>
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D176" s="2"/>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D177" s="2"/>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D178" s="2"/>
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D179" s="2"/>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D180" s="2"/>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D181" s="2"/>
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D182" s="2"/>
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D183" s="2"/>
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D184" s="2"/>
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D185" s="2"/>
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D186" s="2"/>
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D187" s="2"/>
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D188" s="2"/>
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D189" s="2"/>
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D190" s="2"/>
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D191" s="2"/>
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D192" s="2"/>
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D193" s="2"/>
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D194" s="2"/>
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D195" s="2"/>
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D196" s="2"/>
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D197" s="2"/>
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D198" s="2"/>
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D199" s="2"/>
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D200" s="2"/>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D201" s="2"/>
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D202" s="2"/>
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D203" s="2"/>
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D204" s="2"/>
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D205" s="2"/>
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D206" s="2"/>
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D207" s="2"/>
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D208" s="2"/>
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D209" s="2"/>
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D210" s="2"/>
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D211" s="2"/>
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D212" s="2"/>
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D213" s="2"/>
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D214" s="2"/>
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D215" s="2"/>
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D216" s="2"/>
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D217" s="2"/>
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D218" s="2"/>
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D219" s="2"/>
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D220" s="2"/>
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D221" s="2"/>
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D222" s="2"/>
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D223" s="2"/>
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D224" s="2"/>
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D225" s="2"/>
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D226" s="2"/>
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D227" s="2"/>
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D228" s="2"/>
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D229" s="2"/>
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="D230" s="2"/>
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D231" s="2"/>
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D232" s="2"/>
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="D233" s="2"/>
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="D234" s="2"/>
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D235" s="2"/>
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="D236" s="2"/>
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="D237" s="2"/>
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D238" s="2"/>
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="D239" s="2"/>
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="D240" s="2"/>
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="D241" s="2"/>
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C242" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D242" s="2"/>
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D243" s="2"/>
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C244" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="D244" s="2"/>
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C245" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D245" s="2"/>
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="D246" s="2"/>
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C247" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="D247" s="2"/>
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="D248" s="2"/>
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D249" s="2"/>
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C250" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="D250" s="2"/>
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="D251" s="2"/>
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="D252" s="2"/>
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="D253" s="2"/>
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C254" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="D254" s="2"/>
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C255" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="D255" s="2"/>
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="D256" s="2"/>
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="D257" s="2"/>
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C258" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="D258" s="2"/>
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C259" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="D259" s="2"/>
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="D260" s="2"/>
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C261" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="D261" s="2"/>
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C262" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="D262" s="2"/>
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C263" t="s" s="2">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="D263" s="2"/>
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C264" t="s" s="2">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="D264" s="2"/>
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C265" t="s" s="2">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="D265" s="2"/>
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="D266" s="2"/>
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C267" t="s" s="2">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D267" s="2"/>
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D268" s="2"/>
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C269" t="s" s="2">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D269" s="2"/>
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C270" t="s" s="2">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="D270" s="2"/>
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C271" t="s" s="2">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D271" s="2"/>
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="C272" t="s" s="2">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="D272" s="2"/>
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="D273" s="2"/>
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C274" t="s" s="2">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="D274" s="2"/>
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C275" t="s" s="2">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="D275" s="2"/>
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C276" t="s" s="2">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D276" s="2"/>
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C277" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="D277" s="2"/>
+        <v>616</v>
+      </c>
+      <c r="D277" t="s" s="2">
+        <v>617</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="C278" t="s" s="2">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="D278" t="s" s="2">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="C279" t="s" s="2">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="D279" t="s" s="2">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="C280" t="s" s="2">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="D280" s="2"/>
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="D281" s="2"/>
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="C282" t="s" s="2">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="D282" t="s" s="2">
-        <v>626</v>
+        <v>630</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="C283" t="s" s="2">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="D283" s="2"/>
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B284" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="C284" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="D284" s="2"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B285" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="C285" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="D285" s="2"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B286" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="C286" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="D286" s="2"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B287" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="C287" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="D287" s="2"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B288" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="C288" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="D288" s="2"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B289" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="C289" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="D289" s="2"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B290" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="C290" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="D290" s="2"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B291" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="C291" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="D291" s="2"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B292" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="C292" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="D292" s="2"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B293" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="C293" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="D293" s="2"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B294" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="C294" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="D294" s="2"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B295" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="C295" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="D295" s="2"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B296" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="C284" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="D284" s="2"/>
+      <c r="C296" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="D296" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
